--- a/database/industries/siman/sehegmat/cost/quarterly.xlsx
+++ b/database/industries/siman/sehegmat/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sehegmat\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sehegmat\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B519A2-7C72-4D39-A7F4-F35D6ED6E210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4DA62C-B60B-4B12-AEBF-E4B51971531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/04</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/07</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/10</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/01</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/04</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/07</t>
@@ -736,16 +751,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I244"/>
+  <dimension ref="B1:N244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -754,8 +769,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,8 +786,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -778,8 +803,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -788,8 +818,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -800,8 +835,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -812,8 +852,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -822,8 +867,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -844,8 +894,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -854,164 +919,274 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>143360</v>
+      </c>
+      <c r="F10" s="9">
+        <v>159803</v>
+      </c>
+      <c r="G10" s="9">
+        <v>199033</v>
+      </c>
+      <c r="H10" s="9">
+        <v>211775</v>
+      </c>
+      <c r="I10" s="9">
+        <v>194690</v>
+      </c>
+      <c r="J10" s="9">
         <v>261906</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>297362</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>280021</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>375660</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>300991</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>17131</v>
+      </c>
+      <c r="F11" s="11">
+        <v>22290</v>
+      </c>
+      <c r="G11" s="11">
+        <v>43428</v>
+      </c>
+      <c r="H11" s="11">
+        <v>15828</v>
+      </c>
+      <c r="I11" s="11">
+        <v>45463</v>
+      </c>
+      <c r="J11" s="11">
         <v>-5761</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>97476</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>51471</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>67565</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>-37001</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>305707</v>
+      </c>
+      <c r="F12" s="9">
+        <v>431678</v>
+      </c>
+      <c r="G12" s="9">
+        <v>203256</v>
+      </c>
+      <c r="H12" s="9">
+        <v>561100</v>
+      </c>
+      <c r="I12" s="9">
+        <v>185113</v>
+      </c>
+      <c r="J12" s="9">
         <v>711032</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>769191</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>886546</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>625785</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>1066696</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>466198</v>
+      </c>
+      <c r="F13" s="13">
+        <v>613771</v>
+      </c>
+      <c r="G13" s="13">
+        <v>445717</v>
+      </c>
+      <c r="H13" s="13">
+        <v>788703</v>
+      </c>
+      <c r="I13" s="13">
+        <v>425266</v>
+      </c>
+      <c r="J13" s="13">
         <v>967177</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>1164029</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>1218038</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>1069010</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>1330686</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>-2257</v>
+      </c>
+      <c r="F14" s="9">
+        <v>-13309</v>
+      </c>
+      <c r="G14" s="9">
+        <v>11449</v>
+      </c>
+      <c r="H14" s="9">
+        <v>-5954</v>
+      </c>
+      <c r="I14" s="9">
+        <v>-34046</v>
+      </c>
+      <c r="J14" s="9">
         <v>4346</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>22243</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>-12357</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>-7583</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>-14433</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>463941</v>
+      </c>
+      <c r="F15" s="13">
+        <v>600462</v>
+      </c>
+      <c r="G15" s="13">
+        <v>457166</v>
+      </c>
+      <c r="H15" s="13">
+        <v>782749</v>
+      </c>
+      <c r="I15" s="13">
+        <v>391220</v>
+      </c>
+      <c r="J15" s="13">
         <v>971523</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>1186272</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>1205681</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>1061427</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>1316253</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>10406</v>
+      </c>
+      <c r="F16" s="9">
+        <v>56753</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-34953</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-22424</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-5327</v>
+      </c>
+      <c r="J16" s="9">
         <v>-97427</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-144771</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-319553</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>189081</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-61462</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1030,98 +1205,173 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>474347</v>
+      </c>
+      <c r="F18" s="15">
+        <v>657215</v>
+      </c>
+      <c r="G18" s="15">
+        <v>422213</v>
+      </c>
+      <c r="H18" s="15">
+        <v>760325</v>
+      </c>
+      <c r="I18" s="15">
+        <v>385893</v>
+      </c>
+      <c r="J18" s="15">
         <v>874096</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>1041501</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>886128</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>1250508</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>1254791</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>9675</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>36564</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>40137</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
         <v>45043</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>5013</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-3852</v>
+      </c>
+      <c r="G20" s="9">
+        <v>6708</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-17513</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-1421</v>
+      </c>
+      <c r="J20" s="9">
         <v>-17630</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-40137</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-49797</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>4754</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-61597</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>479610</v>
+      </c>
+      <c r="F21" s="13">
+        <v>653363</v>
+      </c>
+      <c r="G21" s="13">
+        <v>428921</v>
+      </c>
+      <c r="H21" s="13">
+        <v>752487</v>
+      </c>
+      <c r="I21" s="13">
+        <v>384472</v>
+      </c>
+      <c r="J21" s="13">
         <v>856466</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>1037928</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>876468</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>1255262</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>1238237</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1140,30 +1390,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>479610</v>
+      </c>
+      <c r="F23" s="13">
+        <v>653363</v>
+      </c>
+      <c r="G23" s="13">
+        <v>428921</v>
+      </c>
+      <c r="H23" s="13">
+        <v>752487</v>
+      </c>
+      <c r="I23" s="13">
+        <v>384472</v>
+      </c>
+      <c r="J23" s="13">
         <v>856466</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>1037928</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>876468</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>1255262</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>1238237</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1172,8 +1452,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1182,8 +1467,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1192,10 +1482,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1214,8 +1509,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1224,68 +1534,103 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>1179740</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1300000</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="9">
+        <v>2310200</v>
+      </c>
+      <c r="I29" s="9">
+        <v>3117523</v>
+      </c>
+      <c r="J29" s="9">
         <v>4974596</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9">
         <v>2934180</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>3505550</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>2005570</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>73000</v>
+      </c>
+      <c r="F31" s="9">
         <v>48000</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="G31" s="9">
         <v>48000</v>
@@ -1296,198 +1641,333 @@
       <c r="I31" s="9">
         <v>48000</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="9">
+        <v>48000</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="9">
+        <v>48000</v>
+      </c>
+      <c r="M31" s="9">
+        <v>48000</v>
+      </c>
+      <c r="N31" s="9">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>186671</v>
+      </c>
+      <c r="F32" s="11">
+        <v>108026</v>
+      </c>
+      <c r="G32" s="11">
+        <v>156624</v>
+      </c>
+      <c r="H32" s="11">
+        <v>673452</v>
+      </c>
+      <c r="I32" s="11">
+        <v>664056</v>
+      </c>
+      <c r="J32" s="11">
         <v>767563</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="K32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="11">
         <v>929283</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>868509</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>806295</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>220</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>26</v>
+        <v>8285</v>
+      </c>
+      <c r="F33" s="9">
+        <v>8285</v>
       </c>
       <c r="G33" s="9">
-        <v>8282</v>
+        <v>8285</v>
       </c>
       <c r="H33" s="9">
         <v>8282</v>
       </c>
       <c r="I33" s="9">
+        <v>8282</v>
+      </c>
+      <c r="J33" s="9">
+        <v>220</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="9">
+        <v>8282</v>
+      </c>
+      <c r="M33" s="9">
+        <v>8282</v>
+      </c>
+      <c r="N33" s="9">
         <v>8288</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>3851</v>
+      </c>
+      <c r="F34" s="11">
+        <v>9046</v>
+      </c>
+      <c r="G34" s="11">
+        <v>38432</v>
+      </c>
+      <c r="H34" s="11">
+        <v>31614</v>
+      </c>
+      <c r="I34" s="11">
+        <v>24100</v>
+      </c>
+      <c r="J34" s="11">
         <v>18426</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="K34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="11">
         <v>45573</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>38844</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>31721</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>28757</v>
+      </c>
+      <c r="F35" s="9">
+        <v>25796</v>
+      </c>
+      <c r="G35" s="9">
+        <v>14654</v>
+      </c>
+      <c r="H35" s="9">
+        <v>5077</v>
+      </c>
+      <c r="I35" s="9">
+        <v>17448</v>
+      </c>
+      <c r="J35" s="9">
         <v>21491</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="K35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="9">
         <v>34158</v>
       </c>
-      <c r="H35" s="9">
+      <c r="M35" s="9">
         <v>38640</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>18763</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>115588</v>
+      </c>
+      <c r="F36" s="11">
+        <v>148723</v>
+      </c>
+      <c r="G36" s="11">
+        <v>170092</v>
+      </c>
+      <c r="H36" s="11">
+        <v>330210</v>
+      </c>
+      <c r="I36" s="11">
+        <v>391327</v>
+      </c>
+      <c r="J36" s="11">
         <v>469422</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="11">
+      <c r="K36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="11">
         <v>479883</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>385294</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>279729</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>2850</v>
+      </c>
+      <c r="F38" s="11">
+        <v>3845</v>
+      </c>
+      <c r="G38" s="11">
+        <v>4915</v>
+      </c>
+      <c r="H38" s="11">
+        <v>6812</v>
+      </c>
+      <c r="I38" s="11">
+        <v>19643</v>
+      </c>
+      <c r="J38" s="11">
         <v>33357</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="K38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="11">
         <v>25186</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>48207</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>38684</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
+        <v>1598742</v>
+      </c>
+      <c r="F39" s="15">
+        <v>1651721</v>
+      </c>
+      <c r="G39" s="15">
+        <v>441002</v>
+      </c>
+      <c r="H39" s="15">
+        <v>3413647</v>
+      </c>
+      <c r="I39" s="15">
+        <v>4290379</v>
+      </c>
+      <c r="J39" s="15">
         <v>6333075</v>
       </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
         <v>4504545</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>4941326</v>
       </c>
-      <c r="I39" s="15">
+      <c r="N39" s="15">
         <v>3237050</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1496,8 +1976,13 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1506,8 +1991,13 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1516,10 +2006,15 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1538,8 +2033,23 @@
       <c r="I43" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1548,61 +2058,96 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
+        <v>3634160</v>
+      </c>
+      <c r="F45" s="9">
+        <v>3882320</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="9">
+        <v>3751823</v>
+      </c>
+      <c r="I45" s="9">
+        <v>4468840</v>
+      </c>
+      <c r="J45" s="9">
         <v>2687578</v>
       </c>
-      <c r="F45" s="9">
+      <c r="K45" s="9">
         <v>501000</v>
       </c>
-      <c r="G45" s="9">
+      <c r="L45" s="9">
         <v>2504720</v>
       </c>
-      <c r="H45" s="9">
+      <c r="M45" s="9">
         <v>1785010</v>
       </c>
-      <c r="I45" s="9">
+      <c r="N45" s="9">
         <v>5343810</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G46" s="11">
+        <v>11364555</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
@@ -1620,37 +2165,67 @@
       <c r="I47" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="9">
+        <v>0</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>0</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0</v>
+      </c>
+      <c r="N47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>207557</v>
+      </c>
+      <c r="F48" s="11">
+        <v>317021</v>
+      </c>
+      <c r="G48" s="11">
+        <v>752293</v>
+      </c>
+      <c r="H48" s="11">
+        <v>220658</v>
+      </c>
+      <c r="I48" s="11">
+        <v>264765</v>
+      </c>
+      <c r="J48" s="11">
         <v>294586</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>270066</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>187856</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>262956</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>206819</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
@@ -1668,150 +2243,255 @@
       <c r="I49" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="9">
+        <v>0</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0</v>
+      </c>
+      <c r="M49" s="9">
+        <v>0</v>
+      </c>
+      <c r="N49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>0</v>
+        <v>12466</v>
       </c>
       <c r="F50" s="11">
+        <v>36545</v>
+      </c>
+      <c r="G50" s="11">
+        <v>1067</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="11">
         <v>39037</v>
       </c>
-      <c r="G50" s="11">
-        <v>0</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0</v>
+      </c>
+      <c r="N50" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
+        <v>17869</v>
+      </c>
+      <c r="F51" s="9">
+        <v>10795</v>
+      </c>
+      <c r="G51" s="9">
+        <v>9593</v>
+      </c>
+      <c r="H51" s="9">
+        <v>35652</v>
+      </c>
+      <c r="I51" s="9">
+        <v>19832</v>
+      </c>
+      <c r="J51" s="9">
         <v>2459</v>
       </c>
-      <c r="F51" s="9">
+      <c r="K51" s="9">
         <v>36520</v>
       </c>
-      <c r="G51" s="9">
+      <c r="L51" s="9">
         <v>18635</v>
       </c>
-      <c r="H51" s="9">
-        <v>0</v>
-      </c>
-      <c r="I51" s="9">
+      <c r="M51" s="9">
+        <v>0</v>
+      </c>
+      <c r="N51" s="9">
         <v>7333</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
+        <v>462415</v>
+      </c>
+      <c r="F52" s="11">
+        <v>499933</v>
+      </c>
+      <c r="G52" s="11">
+        <v>645534</v>
+      </c>
+      <c r="H52" s="11">
+        <v>534621</v>
+      </c>
+      <c r="I52" s="11">
+        <v>447006</v>
+      </c>
+      <c r="J52" s="11">
         <v>480624</v>
       </c>
-      <c r="F52" s="11">
+      <c r="K52" s="11">
         <v>474934</v>
       </c>
-      <c r="G52" s="11">
+      <c r="L52" s="11">
         <v>451413</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>456100</v>
       </c>
-      <c r="I52" s="11">
+      <c r="N52" s="11">
         <v>351001</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53" s="9">
+        <v>31</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" s="9">
         <v>1814</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
+        <v>19414</v>
+      </c>
+      <c r="F54" s="11">
+        <v>20991</v>
+      </c>
+      <c r="G54" s="11">
+        <v>24828</v>
+      </c>
+      <c r="H54" s="11">
+        <v>30375</v>
+      </c>
+      <c r="I54" s="11">
+        <v>27638</v>
+      </c>
+      <c r="J54" s="11">
         <v>19326</v>
       </c>
-      <c r="F54" s="11">
+      <c r="K54" s="11">
         <v>11603</v>
       </c>
-      <c r="G54" s="11">
+      <c r="L54" s="11">
         <v>40655</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>7025</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>39403</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
+        <v>4353881</v>
+      </c>
+      <c r="F55" s="15">
+        <v>4767605</v>
+      </c>
+      <c r="G55" s="15">
+        <v>12797870</v>
+      </c>
+      <c r="H55" s="15">
+        <v>4573129</v>
+      </c>
+      <c r="I55" s="15">
+        <v>5228081</v>
+      </c>
+      <c r="J55" s="15">
         <v>3484573</v>
       </c>
-      <c r="F55" s="15">
+      <c r="K55" s="15">
         <v>1334974</v>
       </c>
-      <c r="G55" s="15">
+      <c r="L55" s="15">
         <v>3203279</v>
       </c>
-      <c r="H55" s="15">
+      <c r="M55" s="15">
         <v>2511091</v>
       </c>
-      <c r="I55" s="15">
+      <c r="N55" s="15">
         <v>5948366</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1820,8 +2500,13 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1830,8 +2515,13 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1840,10 +2530,15 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -1862,8 +2557,23 @@
       <c r="I59" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1872,65 +2582,100 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
+        <v>3513900</v>
+      </c>
+      <c r="F61" s="9">
+        <v>3117820</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="9">
+        <v>2944500</v>
+      </c>
+      <c r="I61" s="9">
+        <v>2654595</v>
+      </c>
+      <c r="J61" s="9">
         <v>2842696</v>
       </c>
-      <c r="F61" s="9">
+      <c r="K61" s="9">
         <v>2343470</v>
       </c>
-      <c r="G61" s="9">
+      <c r="L61" s="9">
         <v>1933350</v>
       </c>
-      <c r="H61" s="9">
+      <c r="M61" s="9">
         <v>3284990</v>
       </c>
-      <c r="I61" s="9">
+      <c r="N61" s="9">
         <v>2192670</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G62" s="11">
+        <v>10031175</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="F63" s="9">
         <v>0</v>
@@ -1944,37 +2689,67 @@
       <c r="I63" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="9">
+        <v>0</v>
+      </c>
+      <c r="K63" s="9">
+        <v>0</v>
+      </c>
+      <c r="L63" s="9">
+        <v>0</v>
+      </c>
+      <c r="M63" s="9">
+        <v>0</v>
+      </c>
+      <c r="N63" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>285202</v>
+      </c>
+      <c r="F64" s="11">
+        <v>269423</v>
+      </c>
+      <c r="G64" s="11">
+        <v>233743</v>
+      </c>
+      <c r="H64" s="11">
+        <v>230054</v>
+      </c>
+      <c r="I64" s="11">
+        <v>161257</v>
+      </c>
+      <c r="J64" s="11">
         <v>216374</v>
       </c>
-      <c r="F64" s="11">
+      <c r="K64" s="11">
         <v>259562</v>
       </c>
-      <c r="G64" s="11">
+      <c r="L64" s="11">
         <v>248630</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>281048</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>211767</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
@@ -1984,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H65" s="9">
         <v>0</v>
@@ -1992,150 +2767,255 @@
       <c r="I65" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="9">
+        <v>0</v>
+      </c>
+      <c r="K65" s="9">
+        <v>0</v>
+      </c>
+      <c r="L65" s="9">
+        <v>0</v>
+      </c>
+      <c r="M65" s="9">
+        <v>0</v>
+      </c>
+      <c r="N65" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>7272</v>
+      </c>
+      <c r="F66" s="11">
+        <v>7158</v>
+      </c>
+      <c r="G66" s="11">
+        <v>7887</v>
+      </c>
+      <c r="H66" s="11">
+        <v>7514</v>
+      </c>
+      <c r="I66" s="11">
+        <v>5674</v>
+      </c>
+      <c r="J66" s="11">
         <v>6449</v>
       </c>
-      <c r="F66" s="11">
+      <c r="K66" s="11">
         <v>7067</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L66" s="11">
         <v>6729</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>7123</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>5947</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
+        <v>20830</v>
+      </c>
+      <c r="F67" s="9">
+        <v>21937</v>
+      </c>
+      <c r="G67" s="9">
+        <v>19170</v>
+      </c>
+      <c r="H67" s="9">
+        <v>23281</v>
+      </c>
+      <c r="I67" s="9">
+        <v>6600</v>
+      </c>
+      <c r="J67" s="9">
         <v>15651</v>
       </c>
-      <c r="F67" s="9">
+      <c r="K67" s="9">
         <v>14868</v>
       </c>
-      <c r="G67" s="9">
+      <c r="L67" s="9">
         <v>14153</v>
       </c>
-      <c r="H67" s="9">
+      <c r="M67" s="9">
         <v>19877</v>
       </c>
-      <c r="I67" s="9">
+      <c r="N67" s="9">
         <v>16825</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
+        <v>429280</v>
+      </c>
+      <c r="F68" s="11">
+        <v>478564</v>
+      </c>
+      <c r="G68" s="11">
+        <v>-1361628</v>
+      </c>
+      <c r="H68" s="11">
+        <v>473504</v>
+      </c>
+      <c r="I68" s="11">
+        <v>363574</v>
+      </c>
+      <c r="J68" s="11">
         <v>461974</v>
       </c>
-      <c r="F68" s="11">
+      <c r="K68" s="11">
         <v>584715</v>
       </c>
-      <c r="G68" s="11">
+      <c r="L68" s="11">
         <v>546002</v>
       </c>
-      <c r="H68" s="11">
+      <c r="M68" s="11">
         <v>561664</v>
       </c>
-      <c r="I68" s="11">
+      <c r="N68" s="11">
         <v>459171</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F69" s="9">
+        <v>31</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69" s="9">
         <v>1814</v>
       </c>
-      <c r="G69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>18419</v>
+      </c>
+      <c r="F70" s="11">
+        <v>19921</v>
+      </c>
+      <c r="G70" s="11">
+        <v>22931</v>
+      </c>
+      <c r="H70" s="11">
+        <v>17544</v>
+      </c>
+      <c r="I70" s="11">
+        <v>13924</v>
+      </c>
+      <c r="J70" s="11">
         <v>17400</v>
       </c>
-      <c r="F70" s="11">
+      <c r="K70" s="11">
         <v>20357</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>17634</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>16548</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>14255</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
+        <v>4299903</v>
+      </c>
+      <c r="F71" s="15">
+        <v>3914823</v>
+      </c>
+      <c r="G71" s="15">
+        <v>8953281</v>
+      </c>
+      <c r="H71" s="15">
+        <v>3696397</v>
+      </c>
+      <c r="I71" s="15">
+        <v>3205624</v>
+      </c>
+      <c r="J71" s="15">
         <v>3560544</v>
       </c>
-      <c r="F71" s="15">
+      <c r="K71" s="15">
         <v>3231853</v>
       </c>
-      <c r="G71" s="15">
+      <c r="L71" s="15">
         <v>2766498</v>
       </c>
-      <c r="H71" s="15">
+      <c r="M71" s="15">
         <v>4171250</v>
       </c>
-      <c r="I71" s="15">
+      <c r="N71" s="15">
         <v>2900635</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2144,8 +3024,13 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2154,8 +3039,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2164,10 +3054,15 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2186,8 +3081,23 @@
       <c r="I75" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2196,61 +3106,96 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
+        <v>1300000</v>
+      </c>
+      <c r="F77" s="9">
+        <v>2064500</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="9">
+        <v>3117523</v>
+      </c>
+      <c r="I77" s="9">
+        <v>4939830</v>
+      </c>
+      <c r="J77" s="9">
         <v>4784712</v>
       </c>
-      <c r="F77" s="9">
+      <c r="K77" s="9">
         <v>2934180</v>
       </c>
-      <c r="G77" s="9">
+      <c r="L77" s="9">
         <v>3505550</v>
       </c>
-      <c r="H77" s="9">
+      <c r="M77" s="9">
         <v>2005570</v>
       </c>
-      <c r="I77" s="9">
+      <c r="N77" s="9">
         <v>5156710</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G78" s="11">
+        <v>3320200</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
@@ -2268,198 +3213,333 @@
       <c r="I79" s="9">
         <v>48000</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="9">
+        <v>48000</v>
+      </c>
+      <c r="K79" s="9">
+        <v>48000</v>
+      </c>
+      <c r="L79" s="9">
+        <v>48000</v>
+      </c>
+      <c r="M79" s="9">
+        <v>48000</v>
+      </c>
+      <c r="N79" s="9">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
+        <v>109026</v>
+      </c>
+      <c r="F80" s="11">
+        <v>156624</v>
+      </c>
+      <c r="G80" s="11">
+        <v>675173</v>
+      </c>
+      <c r="H80" s="11">
+        <v>664056</v>
+      </c>
+      <c r="I80" s="11">
+        <v>767564</v>
+      </c>
+      <c r="J80" s="11">
         <v>845775</v>
       </c>
-      <c r="F80" s="11">
+      <c r="K80" s="11">
         <v>856279</v>
       </c>
-      <c r="G80" s="11">
+      <c r="L80" s="11">
         <v>868509</v>
       </c>
-      <c r="H80" s="11">
+      <c r="M80" s="11">
         <v>806295</v>
       </c>
-      <c r="I80" s="11">
+      <c r="N80" s="11">
         <v>801347</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
-        <v>8282</v>
+        <v>8285</v>
       </c>
       <c r="F81" s="9">
-        <v>8282</v>
+        <v>8285</v>
       </c>
       <c r="G81" s="9">
         <v>8282</v>
       </c>
       <c r="H81" s="9">
+        <v>8282</v>
+      </c>
+      <c r="I81" s="9">
+        <v>220</v>
+      </c>
+      <c r="J81" s="9">
+        <v>8282</v>
+      </c>
+      <c r="K81" s="9">
+        <v>8282</v>
+      </c>
+      <c r="L81" s="9">
+        <v>8282</v>
+      </c>
+      <c r="M81" s="9">
         <v>8288</v>
       </c>
-      <c r="I81" s="9">
+      <c r="N81" s="9">
         <v>8288</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
+        <v>9045</v>
+      </c>
+      <c r="F82" s="11">
+        <v>38432</v>
+      </c>
+      <c r="G82" s="11">
+        <v>31612</v>
+      </c>
+      <c r="H82" s="11">
+        <v>24100</v>
+      </c>
+      <c r="I82" s="11">
+        <v>18426</v>
+      </c>
+      <c r="J82" s="11">
         <v>11977</v>
       </c>
-      <c r="F82" s="11">
+      <c r="K82" s="11">
         <v>43947</v>
       </c>
-      <c r="G82" s="11">
+      <c r="L82" s="11">
         <v>38844</v>
       </c>
-      <c r="H82" s="11">
+      <c r="M82" s="11">
         <v>31721</v>
       </c>
-      <c r="I82" s="11">
+      <c r="N82" s="11">
         <v>25774</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
+        <v>25795</v>
+      </c>
+      <c r="F83" s="9">
+        <v>14654</v>
+      </c>
+      <c r="G83" s="9">
+        <v>5077</v>
+      </c>
+      <c r="H83" s="9">
+        <v>17448</v>
+      </c>
+      <c r="I83" s="9">
+        <v>30680</v>
+      </c>
+      <c r="J83" s="9">
         <v>17488</v>
       </c>
-      <c r="F83" s="9">
+      <c r="K83" s="9">
         <v>39140</v>
       </c>
-      <c r="G83" s="9">
+      <c r="L83" s="9">
         <v>38640</v>
       </c>
-      <c r="H83" s="9">
+      <c r="M83" s="9">
         <v>18763</v>
       </c>
-      <c r="I83" s="9">
+      <c r="N83" s="9">
         <v>9271</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>148723</v>
+      </c>
+      <c r="F84" s="11">
+        <v>170092</v>
+      </c>
+      <c r="G84" s="11">
+        <v>2177253</v>
+      </c>
+      <c r="H84" s="11">
+        <v>391327</v>
+      </c>
+      <c r="I84" s="11">
+        <v>474759</v>
+      </c>
+      <c r="J84" s="11">
         <v>493409</v>
       </c>
-      <c r="F84" s="11">
+      <c r="K84" s="11">
         <v>383628</v>
       </c>
-      <c r="G84" s="11">
+      <c r="L84" s="11">
         <v>385294</v>
       </c>
-      <c r="H84" s="11">
+      <c r="M84" s="11">
         <v>279729</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>171559</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="9">
+        <v>0</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>3845</v>
+      </c>
+      <c r="F86" s="11">
+        <v>4915</v>
+      </c>
+      <c r="G86" s="11">
+        <v>6812</v>
+      </c>
+      <c r="H86" s="11">
+        <v>19643</v>
+      </c>
+      <c r="I86" s="11">
+        <v>33357</v>
+      </c>
+      <c r="J86" s="11">
         <v>35283</v>
       </c>
-      <c r="F86" s="11">
+      <c r="K86" s="11">
         <v>26529</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>48207</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>38684</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>63832</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
+        <v>1652719</v>
+      </c>
+      <c r="F87" s="15">
+        <v>2505502</v>
+      </c>
+      <c r="G87" s="15">
+        <v>6272409</v>
+      </c>
+      <c r="H87" s="15">
+        <v>4290379</v>
+      </c>
+      <c r="I87" s="15">
+        <v>6312836</v>
+      </c>
+      <c r="J87" s="15">
         <v>6244926</v>
       </c>
-      <c r="F87" s="15">
+      <c r="K87" s="15">
         <v>4339985</v>
       </c>
-      <c r="G87" s="15">
+      <c r="L87" s="15">
         <v>4941326</v>
       </c>
-      <c r="H87" s="15">
+      <c r="M87" s="15">
         <v>3237050</v>
       </c>
-      <c r="I87" s="15">
+      <c r="N87" s="15">
         <v>6284781</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2468,8 +3548,13 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2478,8 +3563,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2488,10 +3578,15 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2510,8 +3605,23 @@
       <c r="I91" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2520,68 +3630,103 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
+        <v>15837</v>
+      </c>
+      <c r="F93" s="9">
+        <v>16057</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" s="9">
+        <v>57467</v>
+      </c>
+      <c r="I93" s="9">
+        <v>87704</v>
+      </c>
+      <c r="J93" s="9">
         <v>153103</v>
       </c>
-      <c r="F93" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" s="9">
+      <c r="K93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93" s="9">
         <v>88623</v>
       </c>
-      <c r="H93" s="9">
+      <c r="M93" s="9">
         <v>107789</v>
       </c>
-      <c r="I93" s="9">
+      <c r="N93" s="9">
         <v>50542</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
+        <v>87</v>
+      </c>
+      <c r="F95" s="9">
         <v>57</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="G95" s="9">
         <v>57</v>
@@ -2592,198 +3737,333 @@
       <c r="I95" s="9">
         <v>57</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="9">
+        <v>57</v>
+      </c>
+      <c r="K95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L95" s="9">
+        <v>57</v>
+      </c>
+      <c r="M95" s="9">
+        <v>57</v>
+      </c>
+      <c r="N95" s="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
+        <v>9786</v>
+      </c>
+      <c r="F96" s="11">
+        <v>15547</v>
+      </c>
+      <c r="G96" s="11">
+        <v>9886</v>
+      </c>
+      <c r="H96" s="11">
+        <v>67521</v>
+      </c>
+      <c r="I96" s="11">
+        <v>66987</v>
+      </c>
+      <c r="J96" s="11">
         <v>77542</v>
       </c>
-      <c r="F96" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="11">
+      <c r="K96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L96" s="11">
         <v>94633</v>
       </c>
-      <c r="H96" s="11">
+      <c r="M96" s="11">
         <v>92018</v>
       </c>
-      <c r="I96" s="11">
+      <c r="N96" s="11">
         <v>104351</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>17</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>26</v>
+        <v>2562</v>
+      </c>
+      <c r="F97" s="9">
+        <v>2562</v>
       </c>
       <c r="G97" s="9">
         <v>2562</v>
       </c>
       <c r="H97" s="9">
+        <v>2561</v>
+      </c>
+      <c r="I97" s="9">
+        <v>2561</v>
+      </c>
+      <c r="J97" s="9">
+        <v>17</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L97" s="9">
         <v>2562</v>
       </c>
-      <c r="I97" s="9">
+      <c r="M97" s="9">
+        <v>2562</v>
+      </c>
+      <c r="N97" s="9">
         <v>2559</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
+        <v>1388</v>
+      </c>
+      <c r="F98" s="11">
+        <v>2641</v>
+      </c>
+      <c r="G98" s="11">
+        <v>25835</v>
+      </c>
+      <c r="H98" s="11">
+        <v>24757</v>
+      </c>
+      <c r="I98" s="11">
+        <v>18873</v>
+      </c>
+      <c r="J98" s="11">
         <v>14428</v>
       </c>
-      <c r="F98" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" s="11">
+      <c r="K98" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L98" s="11">
         <v>61386</v>
       </c>
-      <c r="H98" s="11">
+      <c r="M98" s="11">
         <v>52322</v>
       </c>
-      <c r="I98" s="11">
+      <c r="N98" s="11">
         <v>42727</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
+        <v>14524</v>
+      </c>
+      <c r="F99" s="9">
+        <v>12817</v>
+      </c>
+      <c r="G99" s="9">
+        <v>6486</v>
+      </c>
+      <c r="H99" s="9">
+        <v>3333</v>
+      </c>
+      <c r="I99" s="9">
+        <v>15460</v>
+      </c>
+      <c r="J99" s="9">
         <v>19156</v>
       </c>
-      <c r="F99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="9">
+      <c r="K99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="9">
         <v>35190</v>
       </c>
-      <c r="H99" s="9">
+      <c r="M99" s="9">
         <v>40552</v>
       </c>
-      <c r="I99" s="9">
+      <c r="N99" s="9">
         <v>19637</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
+        <v>9469</v>
+      </c>
+      <c r="F100" s="11">
+        <v>13535</v>
+      </c>
+      <c r="G100" s="11">
+        <v>14290</v>
+      </c>
+      <c r="H100" s="11">
+        <v>31283</v>
+      </c>
+      <c r="I100" s="11">
+        <v>37074</v>
+      </c>
+      <c r="J100" s="11">
         <v>67827</v>
       </c>
-      <c r="F100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" s="11">
+      <c r="K100" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L100" s="11">
         <v>81103</v>
       </c>
-      <c r="H100" s="11">
+      <c r="M100" s="11">
         <v>65394</v>
       </c>
-      <c r="I100" s="11">
+      <c r="N100" s="11">
         <v>58289</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N101" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>2227</v>
+      </c>
+      <c r="F102" s="11">
+        <v>3745</v>
+      </c>
+      <c r="G102" s="11">
+        <v>4299</v>
+      </c>
+      <c r="H102" s="11">
+        <v>10384</v>
+      </c>
+      <c r="I102" s="11">
+        <v>32074</v>
+      </c>
+      <c r="J102" s="11">
         <v>96705</v>
       </c>
-      <c r="F102" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="11">
+      <c r="K102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L102" s="11">
         <v>90487</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>205449</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>160840</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15">
+        <v>55880</v>
+      </c>
+      <c r="F103" s="15">
+        <v>66961</v>
+      </c>
+      <c r="G103" s="15">
+        <v>63415</v>
+      </c>
+      <c r="H103" s="15">
+        <v>197363</v>
+      </c>
+      <c r="I103" s="15">
+        <v>260790</v>
+      </c>
+      <c r="J103" s="15">
         <v>428835</v>
       </c>
-      <c r="F103" s="15">
-        <v>0</v>
-      </c>
-      <c r="G103" s="15">
+      <c r="K103" s="15">
+        <v>0</v>
+      </c>
+      <c r="L103" s="15">
         <v>454041</v>
       </c>
-      <c r="H103" s="15">
+      <c r="M103" s="15">
         <v>566143</v>
       </c>
-      <c r="I103" s="15">
+      <c r="N103" s="15">
         <v>439002</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2792,8 +4072,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2802,8 +4087,13 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2812,10 +4102,15 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2834,8 +4129,23 @@
       <c r="I107" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2844,61 +4154,96 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
+        <v>55250</v>
+      </c>
+      <c r="F109" s="9">
+        <v>83340</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H109" s="9">
+        <v>119900</v>
+      </c>
+      <c r="I109" s="9">
+        <v>152044</v>
+      </c>
+      <c r="J109" s="9">
         <v>95567</v>
       </c>
-      <c r="F109" s="9">
+      <c r="K109" s="9">
         <v>15732</v>
       </c>
-      <c r="G109" s="9">
+      <c r="L109" s="9">
         <v>80300</v>
       </c>
-      <c r="H109" s="9">
+      <c r="M109" s="9">
         <v>66454</v>
       </c>
-      <c r="I109" s="9">
+      <c r="N109" s="9">
         <v>175969</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G110" s="11">
+        <v>236515</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
@@ -2916,37 +4261,67 @@
       <c r="I111" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="9">
+        <v>0</v>
+      </c>
+      <c r="K111" s="9">
+        <v>0</v>
+      </c>
+      <c r="L111" s="9">
+        <v>0</v>
+      </c>
+      <c r="M111" s="9">
+        <v>0</v>
+      </c>
+      <c r="N111" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
+        <v>20327</v>
+      </c>
+      <c r="F112" s="11">
+        <v>17223</v>
+      </c>
+      <c r="G112" s="11">
+        <v>81664</v>
+      </c>
+      <c r="H112" s="11">
+        <v>23501</v>
+      </c>
+      <c r="I112" s="11">
+        <v>26805</v>
+      </c>
+      <c r="J112" s="11">
         <v>30825</v>
       </c>
-      <c r="F112" s="11">
+      <c r="K112" s="11">
         <v>36519</v>
       </c>
-      <c r="G112" s="11">
+      <c r="L112" s="11">
         <v>29908</v>
       </c>
-      <c r="H112" s="11">
+      <c r="M112" s="11">
         <v>47975</v>
       </c>
-      <c r="I112" s="11">
+      <c r="N112" s="11">
         <v>43550</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
@@ -2964,150 +4339,255 @@
       <c r="I113" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="9">
+        <v>0</v>
+      </c>
+      <c r="K113" s="9">
+        <v>0</v>
+      </c>
+      <c r="L113" s="9">
+        <v>0</v>
+      </c>
+      <c r="M113" s="9">
+        <v>0</v>
+      </c>
+      <c r="N113" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>0</v>
+        <v>6778</v>
       </c>
       <c r="F114" s="11">
+        <v>29342</v>
+      </c>
+      <c r="G114" s="11">
+        <v>1702</v>
+      </c>
+      <c r="H114" s="11">
+        <v>0</v>
+      </c>
+      <c r="I114" s="11">
+        <v>0</v>
+      </c>
+      <c r="J114" s="11">
+        <v>0</v>
+      </c>
+      <c r="K114" s="11">
         <v>60744</v>
       </c>
-      <c r="G114" s="11">
-        <v>0</v>
-      </c>
-      <c r="H114" s="11">
-        <v>0</v>
-      </c>
-      <c r="I114" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L114" s="11">
+        <v>0</v>
+      </c>
+      <c r="M114" s="11">
+        <v>0</v>
+      </c>
+      <c r="N114" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
+        <v>9752</v>
+      </c>
+      <c r="F115" s="9">
+        <v>370</v>
+      </c>
+      <c r="G115" s="9">
+        <v>11239</v>
+      </c>
+      <c r="H115" s="9">
+        <v>31028</v>
+      </c>
+      <c r="I115" s="9">
+        <v>18606</v>
+      </c>
+      <c r="J115" s="9">
         <v>2212</v>
       </c>
-      <c r="F115" s="9">
+      <c r="K115" s="9">
         <v>34753</v>
       </c>
-      <c r="G115" s="9">
+      <c r="L115" s="9">
         <v>20125</v>
       </c>
-      <c r="H115" s="9">
-        <v>0</v>
-      </c>
-      <c r="I115" s="9">
+      <c r="M115" s="9">
+        <v>0</v>
+      </c>
+      <c r="N115" s="9">
         <v>8600</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
+        <v>55151</v>
+      </c>
+      <c r="F116" s="11">
+        <v>26887</v>
+      </c>
+      <c r="G116" s="11">
+        <v>72787</v>
+      </c>
+      <c r="H116" s="11">
+        <v>50654</v>
+      </c>
+      <c r="I116" s="11">
+        <v>83705</v>
+      </c>
+      <c r="J116" s="11">
         <v>85065</v>
       </c>
-      <c r="F116" s="11">
+      <c r="K116" s="11">
         <v>98362</v>
       </c>
-      <c r="G116" s="11">
+      <c r="L116" s="11">
         <v>77180</v>
       </c>
-      <c r="H116" s="11">
+      <c r="M116" s="11">
         <v>106494</v>
       </c>
-      <c r="I116" s="11">
+      <c r="N116" s="11">
         <v>82113</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F117" s="9">
+        <v>31</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117" s="9">
         <v>194</v>
       </c>
-      <c r="G117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I117" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
+        <v>20182</v>
+      </c>
+      <c r="F118" s="11">
+        <v>17165</v>
+      </c>
+      <c r="G118" s="11">
+        <v>55318</v>
+      </c>
+      <c r="H118" s="11">
+        <v>50119</v>
+      </c>
+      <c r="I118" s="11">
+        <v>92173</v>
+      </c>
+      <c r="J118" s="11">
         <v>66674</v>
       </c>
-      <c r="F118" s="11">
+      <c r="K118" s="11">
         <v>47232</v>
       </c>
-      <c r="G118" s="11">
+      <c r="L118" s="11">
         <v>184610</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>27595</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>178886</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
+        <v>167440</v>
+      </c>
+      <c r="F119" s="15">
+        <v>174327</v>
+      </c>
+      <c r="G119" s="15">
+        <v>459225</v>
+      </c>
+      <c r="H119" s="15">
+        <v>275202</v>
+      </c>
+      <c r="I119" s="15">
+        <v>373333</v>
+      </c>
+      <c r="J119" s="15">
         <v>280343</v>
       </c>
-      <c r="F119" s="15">
+      <c r="K119" s="15">
         <v>293536</v>
       </c>
-      <c r="G119" s="15">
+      <c r="L119" s="15">
         <v>392123</v>
       </c>
-      <c r="H119" s="15">
+      <c r="M119" s="15">
         <v>248518</v>
       </c>
-      <c r="I119" s="15">
+      <c r="N119" s="15">
         <v>489118</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3116,8 +4596,13 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3126,8 +4611,13 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3136,10 +4626,15 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3158,8 +4653,23 @@
       <c r="I123" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3168,65 +4678,100 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
+        <v>55030</v>
+      </c>
+      <c r="F125" s="9">
+        <v>68328</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" s="9">
+        <v>89663</v>
+      </c>
+      <c r="I125" s="9">
+        <v>87329</v>
+      </c>
+      <c r="J125" s="9">
         <v>95426</v>
       </c>
-      <c r="F125" s="9">
+      <c r="K125" s="9">
         <v>79667</v>
       </c>
-      <c r="G125" s="9">
+      <c r="L125" s="9">
         <v>61134</v>
       </c>
-      <c r="H125" s="9">
+      <c r="M125" s="9">
         <v>123705</v>
       </c>
-      <c r="I125" s="9">
+      <c r="N125" s="9">
         <v>62734</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G126" s="11">
+        <v>203213</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L126" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M126" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N126" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F127" s="9">
         <v>0</v>
@@ -3240,37 +4785,67 @@
       <c r="I127" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="9">
+        <v>0</v>
+      </c>
+      <c r="K127" s="9">
+        <v>0</v>
+      </c>
+      <c r="L127" s="9">
+        <v>0</v>
+      </c>
+      <c r="M127" s="9">
+        <v>0</v>
+      </c>
+      <c r="N127" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
+        <v>14451</v>
+      </c>
+      <c r="F128" s="11">
+        <v>22999</v>
+      </c>
+      <c r="G128" s="11">
+        <v>24028</v>
+      </c>
+      <c r="H128" s="11">
+        <v>24035</v>
+      </c>
+      <c r="I128" s="11">
+        <v>16250</v>
+      </c>
+      <c r="J128" s="11">
         <v>22789</v>
       </c>
-      <c r="F128" s="11">
+      <c r="K128" s="11">
         <v>27464</v>
       </c>
-      <c r="G128" s="11">
+      <c r="L128" s="11">
         <v>32523</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>35642</v>
       </c>
-      <c r="I128" s="11">
+      <c r="N128" s="11">
         <v>44493</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
@@ -3280,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" s="9">
         <v>0</v>
@@ -3288,150 +4863,255 @@
       <c r="I129" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="9">
+        <v>0</v>
+      </c>
+      <c r="K129" s="9">
+        <v>0</v>
+      </c>
+      <c r="L129" s="9">
+        <v>0</v>
+      </c>
+      <c r="M129" s="9">
+        <v>0</v>
+      </c>
+      <c r="N129" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
+        <v>2794</v>
+      </c>
+      <c r="F130" s="11">
+        <v>8879</v>
+      </c>
+      <c r="G130" s="11">
+        <v>2782</v>
+      </c>
+      <c r="H130" s="11">
+        <v>5884</v>
+      </c>
+      <c r="I130" s="11">
+        <v>4443</v>
+      </c>
+      <c r="J130" s="11">
         <v>5049</v>
       </c>
-      <c r="F130" s="11">
+      <c r="K130" s="11">
         <v>8737</v>
       </c>
-      <c r="G130" s="11">
+      <c r="L130" s="11">
         <v>9064</v>
       </c>
-      <c r="H130" s="11">
+      <c r="M130" s="11">
         <v>9595</v>
       </c>
-      <c r="I130" s="11">
+      <c r="N130" s="11">
         <v>8010</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
+        <v>10143</v>
+      </c>
+      <c r="F131" s="9">
+        <v>8017</v>
+      </c>
+      <c r="G131" s="9">
+        <v>14391</v>
+      </c>
+      <c r="H131" s="9">
+        <v>18901</v>
+      </c>
+      <c r="I131" s="9">
+        <v>6857</v>
+      </c>
+      <c r="J131" s="9">
         <v>13880</v>
       </c>
-      <c r="F131" s="9">
+      <c r="K131" s="9">
         <v>15104</v>
       </c>
-      <c r="G131" s="9">
+      <c r="L131" s="9">
         <v>14763</v>
       </c>
-      <c r="H131" s="9">
+      <c r="M131" s="9">
         <v>20915</v>
       </c>
-      <c r="I131" s="9">
+      <c r="N131" s="9">
         <v>18575</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
+        <v>42489</v>
+      </c>
+      <c r="F132" s="11">
+        <v>34728</v>
+      </c>
+      <c r="G132" s="11">
+        <v>55794</v>
+      </c>
+      <c r="H132" s="11">
+        <v>44863</v>
+      </c>
+      <c r="I132" s="11">
+        <v>52269</v>
+      </c>
+      <c r="J132" s="11">
         <v>71986</v>
       </c>
-      <c r="F132" s="11">
+      <c r="K132" s="11">
         <v>98848</v>
       </c>
-      <c r="G132" s="11">
+      <c r="L132" s="11">
         <v>92889</v>
       </c>
-      <c r="H132" s="11">
+      <c r="M132" s="11">
         <v>113599</v>
       </c>
-      <c r="I132" s="11">
+      <c r="N132" s="11">
         <v>109627</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F133" s="9">
+        <v>31</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K133" s="9">
         <v>194</v>
       </c>
-      <c r="G133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I133" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N133" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
+        <v>18423</v>
+      </c>
+      <c r="F134" s="11">
+        <v>16852</v>
+      </c>
+      <c r="G134" s="11">
+        <v>49233</v>
+      </c>
+      <c r="H134" s="11">
+        <v>28429</v>
+      </c>
+      <c r="I134" s="11">
+        <v>27542</v>
+      </c>
+      <c r="J134" s="11">
         <v>52776</v>
       </c>
-      <c r="F134" s="11">
+      <c r="K134" s="11">
         <v>67348</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>69648</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>72204</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>57552</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
+        <v>143360</v>
+      </c>
+      <c r="F135" s="15">
+        <v>159803</v>
+      </c>
+      <c r="G135" s="15">
+        <v>349442</v>
+      </c>
+      <c r="H135" s="15">
+        <v>211775</v>
+      </c>
+      <c r="I135" s="15">
+        <v>194690</v>
+      </c>
+      <c r="J135" s="15">
         <v>261906</v>
       </c>
-      <c r="F135" s="15">
+      <c r="K135" s="15">
         <v>297362</v>
       </c>
-      <c r="G135" s="15">
+      <c r="L135" s="15">
         <v>280021</v>
       </c>
-      <c r="H135" s="15">
+      <c r="M135" s="15">
         <v>375660</v>
       </c>
-      <c r="I135" s="15">
+      <c r="N135" s="15">
         <v>300991</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3440,8 +5120,13 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3450,8 +5135,13 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3460,10 +5150,15 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3482,8 +5177,23 @@
       <c r="I139" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N139" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3492,61 +5202,96 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
+        <v>16057</v>
+      </c>
+      <c r="F141" s="9">
+        <v>31069</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H141" s="9">
+        <v>87704</v>
+      </c>
+      <c r="I141" s="9">
+        <v>154963</v>
+      </c>
+      <c r="J141" s="9">
         <v>155104</v>
       </c>
-      <c r="F141" s="9">
+      <c r="K141" s="9">
         <v>88623</v>
       </c>
-      <c r="G141" s="9">
+      <c r="L141" s="9">
         <v>107789</v>
       </c>
-      <c r="H141" s="9">
+      <c r="M141" s="9">
         <v>50542</v>
       </c>
-      <c r="I141" s="9">
+      <c r="N141" s="9">
         <v>163777</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G142" s="11">
+        <v>57484</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J142" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K142" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L142" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M142" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N142" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
@@ -3564,198 +5309,333 @@
       <c r="I143" s="9">
         <v>57</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="9">
+        <v>57</v>
+      </c>
+      <c r="K143" s="9">
+        <v>57</v>
+      </c>
+      <c r="L143" s="9">
+        <v>57</v>
+      </c>
+      <c r="M143" s="9">
+        <v>57</v>
+      </c>
+      <c r="N143" s="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
+        <v>15662</v>
+      </c>
+      <c r="F144" s="11">
+        <v>9886</v>
+      </c>
+      <c r="G144" s="11">
+        <v>67521</v>
+      </c>
+      <c r="H144" s="11">
+        <v>66987</v>
+      </c>
+      <c r="I144" s="11">
+        <v>77542</v>
+      </c>
+      <c r="J144" s="11">
         <v>85578</v>
       </c>
-      <c r="F144" s="11">
+      <c r="K144" s="11">
         <v>94633</v>
       </c>
-      <c r="G144" s="11">
+      <c r="L144" s="11">
         <v>92018</v>
       </c>
-      <c r="H144" s="11">
+      <c r="M144" s="11">
         <v>104351</v>
       </c>
-      <c r="I144" s="11">
+      <c r="N144" s="11">
         <v>103408</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="F145" s="9">
         <v>2562</v>
       </c>
       <c r="G145" s="9">
+        <v>2544</v>
+      </c>
+      <c r="H145" s="9">
+        <v>2561</v>
+      </c>
+      <c r="I145" s="9">
+        <v>17</v>
+      </c>
+      <c r="J145" s="9">
+        <v>2561</v>
+      </c>
+      <c r="K145" s="9">
         <v>2562</v>
       </c>
-      <c r="H145" s="9">
+      <c r="L145" s="9">
+        <v>2562</v>
+      </c>
+      <c r="M145" s="9">
         <v>2559</v>
       </c>
-      <c r="I145" s="9">
+      <c r="N145" s="9">
         <v>2559</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
+        <v>5372</v>
+      </c>
+      <c r="F146" s="11">
+        <v>25835</v>
+      </c>
+      <c r="G146" s="11">
+        <v>24755</v>
+      </c>
+      <c r="H146" s="11">
+        <v>18873</v>
+      </c>
+      <c r="I146" s="11">
+        <v>14428</v>
+      </c>
+      <c r="J146" s="11">
         <v>9379</v>
       </c>
-      <c r="F146" s="11">
+      <c r="K146" s="11">
         <v>61386</v>
       </c>
-      <c r="G146" s="11">
+      <c r="L146" s="11">
         <v>52322</v>
       </c>
-      <c r="H146" s="11">
+      <c r="M146" s="11">
         <v>42727</v>
       </c>
-      <c r="I146" s="11">
+      <c r="N146" s="11">
         <v>34717</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
+        <v>14133</v>
+      </c>
+      <c r="F147" s="9">
+        <v>6486</v>
+      </c>
+      <c r="G147" s="9">
+        <v>3333</v>
+      </c>
+      <c r="H147" s="9">
+        <v>15460</v>
+      </c>
+      <c r="I147" s="9">
+        <v>27209</v>
+      </c>
+      <c r="J147" s="9">
         <v>15541</v>
       </c>
-      <c r="F147" s="9">
+      <c r="K147" s="9">
         <v>35190</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>40552</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>19637</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>9662</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
+        <v>22131</v>
+      </c>
+      <c r="F148" s="11">
+        <v>14290</v>
+      </c>
+      <c r="G148" s="11">
+        <v>31283</v>
+      </c>
+      <c r="H148" s="11">
+        <v>37074</v>
+      </c>
+      <c r="I148" s="11">
+        <v>68510</v>
+      </c>
+      <c r="J148" s="11">
         <v>81589</v>
       </c>
-      <c r="F148" s="11">
+      <c r="K148" s="11">
         <v>81103</v>
       </c>
-      <c r="G148" s="11">
+      <c r="L148" s="11">
         <v>65394</v>
       </c>
-      <c r="H148" s="11">
+      <c r="M148" s="11">
         <v>58289</v>
       </c>
-      <c r="I148" s="11">
+      <c r="N148" s="11">
         <v>30775</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F149" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K149" s="9">
+        <v>0</v>
+      </c>
+      <c r="L149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N149" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
+        <v>3986</v>
+      </c>
+      <c r="F150" s="11">
+        <v>4299</v>
+      </c>
+      <c r="G150" s="11">
+        <v>10384</v>
+      </c>
+      <c r="H150" s="11">
+        <v>32074</v>
+      </c>
+      <c r="I150" s="11">
+        <v>96705</v>
+      </c>
+      <c r="J150" s="11">
         <v>110603</v>
       </c>
-      <c r="F150" s="11">
+      <c r="K150" s="11">
         <v>90487</v>
       </c>
-      <c r="G150" s="11">
+      <c r="L150" s="11">
         <v>205449</v>
       </c>
-      <c r="H150" s="11">
+      <c r="M150" s="11">
         <v>160840</v>
       </c>
-      <c r="I150" s="11">
+      <c r="N150" s="11">
         <v>282174</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
       <c r="E151" s="15">
+        <v>79960</v>
+      </c>
+      <c r="F151" s="15">
+        <v>94484</v>
+      </c>
+      <c r="G151" s="15">
+        <v>197361</v>
+      </c>
+      <c r="H151" s="15">
+        <v>260790</v>
+      </c>
+      <c r="I151" s="15">
+        <v>439431</v>
+      </c>
+      <c r="J151" s="15">
         <v>460412</v>
       </c>
-      <c r="F151" s="15">
+      <c r="K151" s="15">
         <v>454041</v>
       </c>
-      <c r="G151" s="15">
+      <c r="L151" s="15">
         <v>566143</v>
       </c>
-      <c r="H151" s="15">
+      <c r="M151" s="15">
         <v>439002</v>
       </c>
-      <c r="I151" s="15">
+      <c r="N151" s="15">
         <v>627129</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3764,8 +5644,13 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3774,8 +5659,13 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3784,10 +5674,15 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -3806,8 +5701,23 @@
       <c r="I155" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N155" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3816,65 +5726,100 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
+        <v>13424</v>
+      </c>
+      <c r="F157" s="9">
+        <v>12352</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H157" s="9">
+        <v>24875</v>
+      </c>
+      <c r="I157" s="9">
+        <v>28133</v>
+      </c>
+      <c r="J157" s="9">
         <v>31370</v>
       </c>
-      <c r="F157" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G157" s="9">
+      <c r="K157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L157" s="9">
         <v>30204</v>
       </c>
-      <c r="H157" s="9">
+      <c r="M157" s="9">
         <v>30748</v>
       </c>
-      <c r="I157" s="9">
+      <c r="N157" s="9">
         <v>25201</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N158" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="F159" s="9">
         <v>1188</v>
@@ -3888,176 +5833,296 @@
       <c r="I159" s="9">
         <v>1188</v>
       </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="9">
+        <v>1188</v>
+      </c>
+      <c r="K159" s="9">
+        <v>1188</v>
+      </c>
+      <c r="L159" s="9">
+        <v>1188</v>
+      </c>
+      <c r="M159" s="9">
+        <v>1188</v>
+      </c>
+      <c r="N159" s="9">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
+        <v>52424</v>
+      </c>
+      <c r="F160" s="11">
+        <v>143919</v>
+      </c>
+      <c r="G160" s="11">
+        <v>63119</v>
+      </c>
+      <c r="H160" s="11">
+        <v>100261</v>
+      </c>
+      <c r="I160" s="11">
+        <v>100876</v>
+      </c>
+      <c r="J160" s="11">
         <v>101024</v>
       </c>
-      <c r="F160" s="11">
+      <c r="K160" s="11">
         <v>101183</v>
       </c>
-      <c r="G160" s="11">
+      <c r="L160" s="11">
         <v>101834</v>
       </c>
-      <c r="H160" s="11">
+      <c r="M160" s="11">
         <v>105949</v>
       </c>
-      <c r="I160" s="11">
+      <c r="N160" s="11">
         <v>129420</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
+        <v>309234</v>
+      </c>
+      <c r="F161" s="9">
+        <v>309234</v>
+      </c>
+      <c r="G161" s="9">
+        <v>309234</v>
+      </c>
+      <c r="H161" s="9">
+        <v>309225</v>
+      </c>
+      <c r="I161" s="9">
+        <v>309225</v>
+      </c>
+      <c r="J161" s="9">
         <v>77273</v>
       </c>
-      <c r="F161" s="9">
+      <c r="K161" s="9">
         <v>309225</v>
       </c>
-      <c r="G161" s="9">
+      <c r="L161" s="9">
         <v>309346</v>
       </c>
-      <c r="H161" s="9">
+      <c r="M161" s="9">
         <v>309346</v>
       </c>
-      <c r="I161" s="9">
+      <c r="N161" s="9">
         <v>308760</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
+        <v>360426</v>
+      </c>
+      <c r="F162" s="11">
+        <v>291952</v>
+      </c>
+      <c r="G162" s="11">
+        <v>672226</v>
+      </c>
+      <c r="H162" s="11">
+        <v>783102</v>
+      </c>
+      <c r="I162" s="11">
+        <v>783112</v>
+      </c>
+      <c r="J162" s="11">
         <v>783024</v>
       </c>
-      <c r="F162" s="11">
+      <c r="K162" s="11">
         <v>783084</v>
       </c>
-      <c r="G162" s="11">
+      <c r="L162" s="11">
         <v>1346982</v>
       </c>
-      <c r="H162" s="11">
+      <c r="M162" s="11">
         <v>1346978</v>
       </c>
-      <c r="I162" s="11">
+      <c r="N162" s="11">
         <v>1346963</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
+        <v>505060</v>
+      </c>
+      <c r="F163" s="9">
+        <v>496860</v>
+      </c>
+      <c r="G163" s="9">
+        <v>442610</v>
+      </c>
+      <c r="H163" s="9">
+        <v>656490</v>
+      </c>
+      <c r="I163" s="9">
+        <v>886061</v>
+      </c>
+      <c r="J163" s="9">
         <v>886864</v>
       </c>
-      <c r="F163" s="9">
+      <c r="K163" s="9">
         <v>888667</v>
       </c>
-      <c r="G163" s="9">
+      <c r="L163" s="9">
         <v>1030213</v>
       </c>
-      <c r="H163" s="9">
+      <c r="M163" s="9">
         <v>1049482</v>
       </c>
-      <c r="I163" s="9">
+      <c r="N163" s="9">
         <v>1046581</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
+        <v>81920</v>
+      </c>
+      <c r="F164" s="11">
+        <v>91008</v>
+      </c>
+      <c r="G164" s="11">
+        <v>84013</v>
+      </c>
+      <c r="H164" s="11">
+        <v>94737</v>
+      </c>
+      <c r="I164" s="11">
+        <v>94739</v>
+      </c>
+      <c r="J164" s="11">
         <v>144305</v>
       </c>
-      <c r="F164" s="11">
+      <c r="K164" s="11">
         <v>165358</v>
       </c>
-      <c r="G164" s="11">
+      <c r="L164" s="11">
         <v>169006</v>
       </c>
-      <c r="H164" s="11">
+      <c r="M164" s="11">
         <v>169725</v>
       </c>
-      <c r="I164" s="11">
+      <c r="N164" s="11">
         <v>208377</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K165" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L165" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M165" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N165" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
+        <v>781404</v>
+      </c>
+      <c r="F166" s="11">
+        <v>973992</v>
+      </c>
+      <c r="G166" s="11">
+        <v>874669</v>
+      </c>
+      <c r="H166" s="11">
+        <v>1524369</v>
+      </c>
+      <c r="I166" s="11">
+        <v>1632846</v>
+      </c>
+      <c r="J166" s="11">
         <v>2899092</v>
       </c>
-      <c r="F166" s="11">
+      <c r="K166" s="11">
         <v>3134739</v>
       </c>
-      <c r="G166" s="11">
+      <c r="L166" s="11">
         <v>3592750</v>
       </c>
-      <c r="H166" s="11">
+      <c r="M166" s="11">
         <v>4261808</v>
       </c>
-      <c r="I166" s="11">
+      <c r="N166" s="11">
         <v>4157791</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -4066,8 +6131,13 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4076,8 +6146,13 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -4086,10 +6161,15 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -4108,8 +6188,23 @@
       <c r="I170" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J170" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K170" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L170" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M170" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N170" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -4118,248 +6213,403 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="9">
+        <v>15203</v>
+      </c>
+      <c r="F172" s="9">
+        <v>17603</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H172" s="9">
+        <v>31958</v>
+      </c>
+      <c r="I172" s="9">
+        <v>34023</v>
+      </c>
+      <c r="J172" s="9">
         <v>35559</v>
       </c>
-      <c r="F172" s="9">
+      <c r="K172" s="9">
         <v>33591</v>
       </c>
-      <c r="G172" s="9">
+      <c r="L172" s="9">
         <v>32059</v>
       </c>
-      <c r="H172" s="9">
+      <c r="M172" s="9">
         <v>37229</v>
       </c>
-      <c r="I172" s="9">
+      <c r="N172" s="9">
         <v>32930</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G173" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G173" s="11">
+        <v>20812</v>
       </c>
       <c r="H173" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J173" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K173" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L173" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M173" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N173" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I174" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J174" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K174" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L174" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M174" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N174" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="11">
+        <v>97935</v>
+      </c>
+      <c r="F175" s="11">
+        <v>38799</v>
+      </c>
+      <c r="G175" s="11">
+        <v>108553</v>
+      </c>
+      <c r="H175" s="11">
+        <v>106504</v>
+      </c>
+      <c r="I175" s="11">
+        <v>101241</v>
+      </c>
+      <c r="J175" s="11">
         <v>104638</v>
       </c>
-      <c r="F175" s="11">
+      <c r="K175" s="11">
         <v>135223</v>
       </c>
-      <c r="G175" s="11">
+      <c r="L175" s="11">
         <v>159207</v>
       </c>
-      <c r="H175" s="11">
+      <c r="M175" s="11">
         <v>182445</v>
       </c>
-      <c r="I175" s="11">
+      <c r="N175" s="11">
         <v>210571</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D176" s="9"/>
       <c r="E176" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I176" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N176" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D177" s="11"/>
-      <c r="E177" s="11" t="s">
-        <v>26</v>
+      <c r="E177" s="11">
+        <v>543719</v>
       </c>
       <c r="F177" s="11">
+        <v>877654</v>
+      </c>
+      <c r="G177" s="11">
+        <v>1595127</v>
+      </c>
+      <c r="H177" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I177" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J177" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K177" s="11">
         <v>1556062</v>
       </c>
-      <c r="G177" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H177" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I177" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L177" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M177" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N177" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9">
+        <v>545750</v>
+      </c>
+      <c r="F178" s="9">
+        <v>156183</v>
+      </c>
+      <c r="G178" s="9">
+        <v>1171583</v>
+      </c>
+      <c r="H178" s="9">
+        <v>870302</v>
+      </c>
+      <c r="I178" s="9">
+        <v>938181</v>
+      </c>
+      <c r="J178" s="9">
         <v>899553</v>
       </c>
-      <c r="F178" s="9">
+      <c r="K178" s="9">
         <v>951616</v>
       </c>
-      <c r="G178" s="9">
+      <c r="L178" s="9">
         <v>1079957</v>
       </c>
-      <c r="H178" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I178" s="9">
+      <c r="M178" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N178" s="9">
         <v>1172781</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D179" s="11"/>
       <c r="E179" s="11">
+        <v>119267</v>
+      </c>
+      <c r="F179" s="11">
+        <v>40971</v>
+      </c>
+      <c r="G179" s="11">
+        <v>112755</v>
+      </c>
+      <c r="H179" s="11">
+        <v>94747</v>
+      </c>
+      <c r="I179" s="11">
+        <v>187257</v>
+      </c>
+      <c r="J179" s="11">
         <v>176989</v>
       </c>
-      <c r="F179" s="11">
+      <c r="K179" s="11">
         <v>207107</v>
       </c>
-      <c r="G179" s="11">
+      <c r="L179" s="11">
         <v>170974</v>
       </c>
-      <c r="H179" s="11">
+      <c r="M179" s="11">
         <v>233488</v>
       </c>
-      <c r="I179" s="11">
+      <c r="N179" s="11">
         <v>233940</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F180" s="9">
+        <v>31</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H180" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I180" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J180" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K180" s="9">
         <v>106946</v>
       </c>
-      <c r="G180" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H180" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I180" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L180" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M180" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N180" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="11">
+        <v>1039559</v>
+      </c>
+      <c r="F181" s="11">
+        <v>829213</v>
+      </c>
+      <c r="G181" s="11">
+        <v>2228049</v>
+      </c>
+      <c r="H181" s="11">
+        <v>1650008</v>
+      </c>
+      <c r="I181" s="11">
+        <v>3335010</v>
+      </c>
+      <c r="J181" s="11">
         <v>3449964</v>
       </c>
-      <c r="F181" s="11">
+      <c r="K181" s="11">
         <v>4070671</v>
       </c>
-      <c r="G181" s="11">
+      <c r="L181" s="11">
         <v>4540893</v>
       </c>
-      <c r="H181" s="11">
+      <c r="M181" s="11">
         <v>3928114</v>
       </c>
-      <c r="I181" s="11">
+      <c r="N181" s="11">
         <v>4539908</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4368,8 +6618,13 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4378,8 +6633,13 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4388,10 +6648,15 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
-    </row>
-    <row r="185" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+    </row>
+    <row r="185" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
@@ -4410,8 +6675,23 @@
       <c r="I185" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J185" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K185" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L185" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M185" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N185" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4420,248 +6700,403 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D187" s="9"/>
       <c r="E187" s="9">
+        <v>15661</v>
+      </c>
+      <c r="F187" s="9">
+        <v>17104</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H187" s="9">
+        <v>30451</v>
+      </c>
+      <c r="I187" s="9">
+        <v>32897</v>
+      </c>
+      <c r="J187" s="9">
         <v>33569</v>
       </c>
-      <c r="F187" s="9">
+      <c r="K187" s="9">
         <v>32645</v>
       </c>
-      <c r="G187" s="9">
+      <c r="L187" s="9">
         <v>31621</v>
       </c>
-      <c r="H187" s="9">
+      <c r="M187" s="9">
         <v>37658</v>
       </c>
-      <c r="I187" s="9">
+      <c r="N187" s="9">
         <v>28611</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G188" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G188" s="11">
+        <v>20258</v>
       </c>
       <c r="H188" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J188" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K188" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L188" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M188" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N188" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D189" s="9"/>
-      <c r="E189" s="9" t="s">
-        <v>26</v>
+      <c r="E189" s="9">
+        <v>1200</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H189" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I189" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J189" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K189" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L189" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M189" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N189" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="11">
+        <v>50669</v>
+      </c>
+      <c r="F190" s="11">
+        <v>66809</v>
+      </c>
+      <c r="G190" s="11">
+        <v>102797</v>
+      </c>
+      <c r="H190" s="11">
+        <v>104475</v>
+      </c>
+      <c r="I190" s="11">
+        <v>100771</v>
+      </c>
+      <c r="J190" s="11">
         <v>105322</v>
       </c>
-      <c r="F190" s="11">
+      <c r="K190" s="11">
         <v>105809</v>
       </c>
-      <c r="G190" s="11">
+      <c r="L190" s="11">
         <v>130809</v>
       </c>
-      <c r="H190" s="11">
+      <c r="M190" s="11">
         <v>126818</v>
       </c>
-      <c r="I190" s="11">
+      <c r="N190" s="11">
         <v>210104</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G191" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G191" s="9">
+        <v>333333</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J191" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K191" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L191" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M191" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N191" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D192" s="11"/>
       <c r="E192" s="11">
+        <v>384213</v>
+      </c>
+      <c r="F192" s="11">
+        <v>1240430</v>
+      </c>
+      <c r="G192" s="11">
+        <v>352732</v>
+      </c>
+      <c r="H192" s="11">
+        <v>783072</v>
+      </c>
+      <c r="I192" s="11">
+        <v>783045</v>
+      </c>
+      <c r="J192" s="11">
         <v>782912</v>
       </c>
-      <c r="F192" s="11">
+      <c r="K192" s="11">
         <v>1236310</v>
       </c>
-      <c r="G192" s="11">
+      <c r="L192" s="11">
         <v>1347006</v>
       </c>
-      <c r="H192" s="11">
+      <c r="M192" s="11">
         <v>1347045</v>
       </c>
-      <c r="I192" s="11">
+      <c r="N192" s="11">
         <v>1346898</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9">
+        <v>486942</v>
+      </c>
+      <c r="F193" s="9">
+        <v>365456</v>
+      </c>
+      <c r="G193" s="9">
+        <v>750704</v>
+      </c>
+      <c r="H193" s="9">
+        <v>811864</v>
+      </c>
+      <c r="I193" s="9">
+        <v>1038939</v>
+      </c>
+      <c r="J193" s="9">
         <v>886844</v>
       </c>
-      <c r="F193" s="9">
+      <c r="K193" s="9">
         <v>1015873</v>
       </c>
-      <c r="G193" s="9">
+      <c r="L193" s="9">
         <v>1043100</v>
       </c>
-      <c r="H193" s="9">
+      <c r="M193" s="9">
         <v>1052221</v>
       </c>
-      <c r="I193" s="9">
+      <c r="N193" s="9">
         <v>1104012</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11">
+        <v>98977</v>
+      </c>
+      <c r="F194" s="11">
+        <v>41223</v>
+      </c>
+      <c r="G194" s="11">
+        <v>-40976</v>
+      </c>
+      <c r="H194" s="11">
+        <v>94747</v>
+      </c>
+      <c r="I194" s="11">
+        <v>143764</v>
+      </c>
+      <c r="J194" s="11">
         <v>155823</v>
       </c>
-      <c r="F194" s="11">
+      <c r="K194" s="11">
         <v>169053</v>
       </c>
-      <c r="G194" s="11">
+      <c r="L194" s="11">
         <v>170126</v>
       </c>
-      <c r="H194" s="11">
+      <c r="M194" s="11">
         <v>202254</v>
       </c>
-      <c r="I194" s="11">
+      <c r="N194" s="11">
         <v>238750</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F195" s="9">
+        <v>31</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G195" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H195" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I195" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J195" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K195" s="9">
         <v>106946</v>
       </c>
-      <c r="G195" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H195" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I195" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L195" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M195" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N195" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D196" s="11"/>
       <c r="E196" s="11">
+        <v>1000217</v>
+      </c>
+      <c r="F196" s="11">
+        <v>845941</v>
+      </c>
+      <c r="G196" s="11">
+        <v>2147006</v>
+      </c>
+      <c r="H196" s="11">
+        <v>1620440</v>
+      </c>
+      <c r="I196" s="11">
+        <v>1978024</v>
+      </c>
+      <c r="J196" s="11">
         <v>3033103</v>
       </c>
-      <c r="F196" s="11">
+      <c r="K196" s="11">
         <v>3308346</v>
       </c>
-      <c r="G196" s="11">
+      <c r="L196" s="11">
         <v>3949643</v>
       </c>
-      <c r="H196" s="11">
+      <c r="M196" s="11">
         <v>4363307</v>
       </c>
-      <c r="I196" s="11">
+      <c r="N196" s="11">
         <v>4037320</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -4670,8 +7105,13 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -4680,8 +7120,13 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -4690,10 +7135,15 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
-    </row>
-    <row r="200" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+    </row>
+    <row r="200" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B200" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
@@ -4712,8 +7162,23 @@
       <c r="I200" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J200" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K200" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L200" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M200" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N200" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -4722,248 +7187,403 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D202" s="9"/>
-      <c r="E202" s="9">
+      <c r="E202" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F202" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G202" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H202" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I202" s="9">
+        <v>31370</v>
+      </c>
+      <c r="J202" s="9">
         <v>32417</v>
       </c>
-      <c r="F202" s="9">
+      <c r="K202" s="9">
         <v>30204</v>
       </c>
-      <c r="G202" s="9">
+      <c r="L202" s="9">
         <v>30748</v>
       </c>
-      <c r="H202" s="9">
+      <c r="M202" s="9">
         <v>25201</v>
       </c>
-      <c r="I202" s="9">
+      <c r="N202" s="9">
         <v>31760</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D203" s="11"/>
       <c r="E203" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F203" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G203" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H203" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J203" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K203" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L203" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M203" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N203" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D204" s="9"/>
-      <c r="E204" s="9">
-        <v>1188</v>
-      </c>
-      <c r="F204" s="9">
-        <v>1188</v>
-      </c>
-      <c r="G204" s="9">
-        <v>1188</v>
-      </c>
-      <c r="H204" s="9">
-        <v>1188</v>
+      <c r="E204" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F204" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G204" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H204" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I204" s="9">
         <v>1188</v>
       </c>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J204" s="9">
+        <v>1188</v>
+      </c>
+      <c r="K204" s="9">
+        <v>1188</v>
+      </c>
+      <c r="L204" s="9">
+        <v>1188</v>
+      </c>
+      <c r="M204" s="9">
+        <v>1188</v>
+      </c>
+      <c r="N204" s="9">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C205" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F205" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G205" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H205" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I205" s="11">
+        <v>101024</v>
+      </c>
+      <c r="J205" s="11">
+        <v>101183</v>
+      </c>
+      <c r="K205" s="11">
+        <v>110517</v>
+      </c>
+      <c r="L205" s="11">
+        <v>105949</v>
+      </c>
+      <c r="M205" s="11">
+        <v>129420</v>
+      </c>
+      <c r="N205" s="11">
+        <v>129043</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B206" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C206" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D205" s="11"/>
-      <c r="E205" s="11">
-        <v>101183</v>
-      </c>
-      <c r="F205" s="11">
-        <v>110517</v>
-      </c>
-      <c r="G205" s="11">
-        <v>105949</v>
-      </c>
-      <c r="H205" s="11">
-        <v>129420</v>
-      </c>
-      <c r="I205" s="11">
-        <v>129043</v>
-      </c>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B206" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C206" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="D206" s="9"/>
-      <c r="E206" s="9">
+      <c r="E206" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F206" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G206" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H206" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I206" s="9">
+        <v>77273</v>
+      </c>
+      <c r="J206" s="9">
         <v>309225</v>
       </c>
-      <c r="F206" s="9">
+      <c r="K206" s="9">
         <v>309346</v>
       </c>
-      <c r="G206" s="9">
+      <c r="L206" s="9">
         <v>309346</v>
       </c>
-      <c r="H206" s="9">
+      <c r="M206" s="9">
         <v>308760</v>
       </c>
-      <c r="I206" s="9">
+      <c r="N206" s="9">
         <v>308760</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D207" s="11"/>
-      <c r="E207" s="11">
+      <c r="E207" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F207" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G207" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H207" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I207" s="11">
+        <v>783024</v>
+      </c>
+      <c r="J207" s="11">
         <v>783084</v>
       </c>
-      <c r="F207" s="11">
+      <c r="K207" s="11">
         <v>1396819</v>
       </c>
-      <c r="G207" s="11">
+      <c r="L207" s="11">
         <v>1346978</v>
       </c>
-      <c r="H207" s="11">
+      <c r="M207" s="11">
         <v>1346963</v>
       </c>
-      <c r="I207" s="11">
+      <c r="N207" s="11">
         <v>1346978</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D208" s="9"/>
-      <c r="E208" s="9">
+      <c r="E208" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F208" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G208" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H208" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I208" s="9">
+        <v>886864</v>
+      </c>
+      <c r="J208" s="9">
         <v>888667</v>
       </c>
-      <c r="F208" s="9">
+      <c r="K208" s="9">
         <v>899080</v>
       </c>
-      <c r="G208" s="9">
+      <c r="L208" s="9">
         <v>1049482</v>
       </c>
-      <c r="H208" s="9">
+      <c r="M208" s="9">
         <v>1046581</v>
       </c>
-      <c r="I208" s="9">
+      <c r="N208" s="9">
         <v>1042175</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B209" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D209" s="11"/>
-      <c r="E209" s="11">
+      <c r="E209" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F209" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G209" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H209" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I209" s="11">
+        <v>144305</v>
+      </c>
+      <c r="J209" s="11">
         <v>165358</v>
       </c>
-      <c r="F209" s="11">
+      <c r="K209" s="11">
         <v>211411</v>
       </c>
-      <c r="G209" s="11">
+      <c r="L209" s="11">
         <v>169725</v>
       </c>
-      <c r="H209" s="11">
+      <c r="M209" s="11">
         <v>208377</v>
       </c>
-      <c r="I209" s="11">
+      <c r="N209" s="11">
         <v>179384</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B210" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C210" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="D210" s="9"/>
       <c r="E210" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H210" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I210" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J210" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K210" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L210" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M210" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N210" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B211" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D211" s="11"/>
-      <c r="E211" s="11">
+      <c r="E211" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F211" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G211" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H211" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I211" s="11">
+        <v>2899092</v>
+      </c>
+      <c r="J211" s="11">
         <v>3134739</v>
       </c>
-      <c r="F211" s="11">
+      <c r="K211" s="11">
         <v>3410871</v>
       </c>
-      <c r="G211" s="11">
+      <c r="L211" s="11">
         <v>4261808</v>
       </c>
-      <c r="H211" s="11">
+      <c r="M211" s="11">
         <v>4157791</v>
       </c>
-      <c r="I211" s="11">
+      <c r="N211" s="11">
         <v>4420573</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -4972,8 +7592,13 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -4982,8 +7607,13 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -4992,10 +7622,15 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-    </row>
-    <row r="215" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+    </row>
+    <row r="215" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B215" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
@@ -5014,8 +7649,23 @@
       <c r="I215" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J215" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K215" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L215" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M215" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N215" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -5024,21 +7674,26 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B217" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
       <c r="E217" s="9">
-        <v>0</v>
+        <v>-10034</v>
       </c>
       <c r="F217" s="9">
-        <v>0</v>
+        <v>20793</v>
       </c>
       <c r="G217" s="9">
-        <v>0</v>
+        <v>-20793</v>
       </c>
       <c r="H217" s="9">
         <v>0</v>
@@ -5046,10 +7701,25 @@
       <c r="I217" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J217" s="9">
+        <v>0</v>
+      </c>
+      <c r="K217" s="9">
+        <v>0</v>
+      </c>
+      <c r="L217" s="9">
+        <v>0</v>
+      </c>
+      <c r="M217" s="9">
+        <v>0</v>
+      </c>
+      <c r="N217" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B218" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
@@ -5068,10 +7738,25 @@
       <c r="I218" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J218" s="11">
+        <v>0</v>
+      </c>
+      <c r="K218" s="11">
+        <v>0</v>
+      </c>
+      <c r="L218" s="11">
+        <v>0</v>
+      </c>
+      <c r="M218" s="11">
+        <v>0</v>
+      </c>
+      <c r="N218" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B219" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
@@ -5090,10 +7775,25 @@
       <c r="I219" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J219" s="9">
+        <v>0</v>
+      </c>
+      <c r="K219" s="9">
+        <v>0</v>
+      </c>
+      <c r="L219" s="9">
+        <v>0</v>
+      </c>
+      <c r="M219" s="9">
+        <v>0</v>
+      </c>
+      <c r="N219" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B220" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
@@ -5112,10 +7812,25 @@
       <c r="I220" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J220" s="11">
+        <v>0</v>
+      </c>
+      <c r="K220" s="11">
+        <v>0</v>
+      </c>
+      <c r="L220" s="11">
+        <v>0</v>
+      </c>
+      <c r="M220" s="11">
+        <v>0</v>
+      </c>
+      <c r="N220" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B221" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
@@ -5134,76 +7849,136 @@
       <c r="I221" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J221" s="9">
+        <v>0</v>
+      </c>
+      <c r="K221" s="9">
+        <v>0</v>
+      </c>
+      <c r="L221" s="9">
+        <v>0</v>
+      </c>
+      <c r="M221" s="9">
+        <v>0</v>
+      </c>
+      <c r="N221" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B222" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11">
+        <v>84791</v>
+      </c>
+      <c r="F222" s="11">
+        <v>111951</v>
+      </c>
+      <c r="G222" s="11">
+        <v>69723</v>
+      </c>
+      <c r="H222" s="11">
+        <v>78531</v>
+      </c>
+      <c r="I222" s="11">
+        <v>42842</v>
+      </c>
+      <c r="J222" s="11">
         <v>204552</v>
       </c>
-      <c r="F222" s="11">
+      <c r="K222" s="11">
         <v>364118</v>
       </c>
-      <c r="G222" s="11">
+      <c r="L222" s="11">
         <v>247387</v>
       </c>
-      <c r="H222" s="11">
+      <c r="M222" s="11">
         <v>373543</v>
       </c>
-      <c r="I222" s="11">
+      <c r="N222" s="11">
         <v>331556</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B223" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
       <c r="E223" s="9">
+        <v>16535</v>
+      </c>
+      <c r="F223" s="9">
+        <v>16465</v>
+      </c>
+      <c r="G223" s="9">
+        <v>16490</v>
+      </c>
+      <c r="H223" s="9">
+        <v>21829</v>
+      </c>
+      <c r="I223" s="9">
+        <v>13452</v>
+      </c>
+      <c r="J223" s="9">
         <v>98799</v>
       </c>
-      <c r="F223" s="9">
+      <c r="K223" s="9">
         <v>-56355</v>
       </c>
-      <c r="G223" s="9">
+      <c r="L223" s="9">
         <v>21077</v>
       </c>
-      <c r="H223" s="9">
+      <c r="M223" s="9">
         <v>31445</v>
       </c>
-      <c r="I223" s="9">
+      <c r="N223" s="9">
         <v>26261</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B224" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
       <c r="E224" s="11">
+        <v>114536</v>
+      </c>
+      <c r="F224" s="11">
+        <v>133755</v>
+      </c>
+      <c r="G224" s="11">
+        <v>154220</v>
+      </c>
+      <c r="H224" s="11">
+        <v>105030</v>
+      </c>
+      <c r="I224" s="11">
+        <v>245513</v>
+      </c>
+      <c r="J224" s="11">
         <v>67450</v>
       </c>
-      <c r="F224" s="11">
+      <c r="K224" s="11">
         <v>378383</v>
       </c>
-      <c r="G224" s="11">
+      <c r="L224" s="11">
         <v>133947</v>
       </c>
-      <c r="H224" s="11">
+      <c r="M224" s="11">
         <v>263422</v>
       </c>
-      <c r="I224" s="11">
+      <c r="N224" s="11">
         <v>216748</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B225" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
@@ -5222,52 +7997,97 @@
       <c r="I225" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J225" s="9">
+        <v>0</v>
+      </c>
+      <c r="K225" s="9">
+        <v>0</v>
+      </c>
+      <c r="L225" s="9">
+        <v>0</v>
+      </c>
+      <c r="M225" s="9">
+        <v>0</v>
+      </c>
+      <c r="N225" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B226" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
       <c r="E226" s="11">
+        <v>99879</v>
+      </c>
+      <c r="F226" s="11">
+        <v>148714</v>
+      </c>
+      <c r="G226" s="11">
+        <v>-16384</v>
+      </c>
+      <c r="H226" s="11">
+        <v>355710</v>
+      </c>
+      <c r="I226" s="11">
+        <v>351062</v>
+      </c>
+      <c r="J226" s="11">
         <v>-127525</v>
       </c>
-      <c r="F226" s="11">
+      <c r="K226" s="11">
         <v>83045</v>
       </c>
-      <c r="G226" s="11">
+      <c r="L226" s="11">
         <v>484135</v>
       </c>
-      <c r="H226" s="11">
+      <c r="M226" s="11">
         <v>-42625</v>
       </c>
-      <c r="I226" s="11">
+      <c r="N226" s="11">
         <v>492131</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B227" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C227" s="15"/>
       <c r="D227" s="15"/>
       <c r="E227" s="15">
+        <v>305707</v>
+      </c>
+      <c r="F227" s="15">
+        <v>431678</v>
+      </c>
+      <c r="G227" s="15">
+        <v>203256</v>
+      </c>
+      <c r="H227" s="15">
+        <v>561100</v>
+      </c>
+      <c r="I227" s="15">
+        <v>652869</v>
+      </c>
+      <c r="J227" s="15">
         <v>243276</v>
       </c>
-      <c r="F227" s="15">
+      <c r="K227" s="15">
         <v>769191</v>
       </c>
-      <c r="G227" s="15">
+      <c r="L227" s="15">
         <v>886546</v>
       </c>
-      <c r="H227" s="15">
+      <c r="M227" s="15">
         <v>625785</v>
       </c>
-      <c r="I227" s="15">
+      <c r="N227" s="15">
         <v>1066696</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -5276,8 +8096,13 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+    </row>
+    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -5286,8 +8111,13 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+    </row>
+    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -5296,10 +8126,15 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
-    </row>
-    <row r="231" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+    </row>
+    <row r="231" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B231" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
@@ -5308,8 +8143,13 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+    </row>
+    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -5318,13 +8158,18 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+    </row>
+    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B233" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
@@ -5332,123 +8177,128 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+    </row>
+    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B234" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D234" s="11"/>
       <c r="E234" s="11"/>
       <c r="F234" s="11"/>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B235" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B236" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D236" s="11"/>
       <c r="E236" s="11"/>
       <c r="F236" s="11"/>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B237" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B238" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B239" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B240" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D240" s="11"/>
       <c r="E240" s="11"/>
       <c r="F240" s="11"/>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" s="10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D242" s="11"/>
       <c r="E242" s="11"/>
       <c r="F242" s="11"/>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>

--- a/database/industries/siman/sehegmat/cost/quarterly.xlsx
+++ b/database/industries/siman/sehegmat/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sehegmat\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sehegmat\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4DA62C-B60B-4B12-AEBF-E4B51971531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B81992-2020-4F27-9162-B74062C601F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,12 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/04</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/07</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/10</t>
   </si>
   <si>
@@ -64,6 +58,12 @@
     <t>فصل سوم منتهی به 1401/07</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/01</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>پیش بینی میگردد هزینه ها بطور متوسط 10 درصد نسبت به شش ماه گذشته افزایش یابد.</t>
+  </si>
+  <si>
+    <t>دوره 6 ماهه منتهی به 1400/10/30</t>
+  </si>
+  <si>
+    <t>با توجه به افزایش سطح عمومی قیمتها و مشخص شدن مبالغ حقوق و دستمزد در ابتدای سال انتظار تغییر قابل ملاحظه ای در عوامل بهای تمام شده وجود ندارد .</t>
   </si>
 </sst>
 </file>
@@ -751,16 +757,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N244"/>
+  <dimension ref="B1:N245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -775,7 +781,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -792,7 +798,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -809,7 +815,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -824,7 +830,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -841,7 +847,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -858,7 +864,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -873,7 +879,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -910,7 +916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -925,266 +931,266 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>143360</v>
+        <v>199033</v>
       </c>
       <c r="F10" s="9">
-        <v>159803</v>
+        <v>211775</v>
       </c>
       <c r="G10" s="9">
-        <v>199033</v>
+        <v>194690</v>
       </c>
       <c r="H10" s="9">
-        <v>211775</v>
+        <v>261906</v>
       </c>
       <c r="I10" s="9">
-        <v>194690</v>
+        <v>297362</v>
       </c>
       <c r="J10" s="9">
-        <v>261906</v>
+        <v>280021</v>
       </c>
       <c r="K10" s="9">
-        <v>297362</v>
+        <v>375660</v>
       </c>
       <c r="L10" s="9">
-        <v>280021</v>
+        <v>300991</v>
       </c>
       <c r="M10" s="9">
-        <v>375660</v>
+        <v>315346</v>
       </c>
       <c r="N10" s="9">
-        <v>300991</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>376863</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>17131</v>
+        <v>43428</v>
       </c>
       <c r="F11" s="11">
-        <v>22290</v>
+        <v>15828</v>
       </c>
       <c r="G11" s="11">
-        <v>43428</v>
+        <v>45463</v>
       </c>
       <c r="H11" s="11">
-        <v>15828</v>
+        <v>-5761</v>
       </c>
       <c r="I11" s="11">
-        <v>45463</v>
+        <v>97476</v>
       </c>
       <c r="J11" s="11">
-        <v>-5761</v>
+        <v>51471</v>
       </c>
       <c r="K11" s="11">
-        <v>97476</v>
+        <v>67565</v>
       </c>
       <c r="L11" s="11">
-        <v>51471</v>
+        <v>-37001</v>
       </c>
       <c r="M11" s="11">
-        <v>67565</v>
+        <v>173336</v>
       </c>
       <c r="N11" s="11">
-        <v>-37001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28076</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>305707</v>
+        <v>203256</v>
       </c>
       <c r="F12" s="9">
-        <v>431678</v>
+        <v>561100</v>
       </c>
       <c r="G12" s="9">
-        <v>203256</v>
+        <v>185113</v>
       </c>
       <c r="H12" s="9">
-        <v>561100</v>
+        <v>711032</v>
       </c>
       <c r="I12" s="9">
-        <v>185113</v>
+        <v>769191</v>
       </c>
       <c r="J12" s="9">
-        <v>711032</v>
+        <v>886546</v>
       </c>
       <c r="K12" s="9">
-        <v>769191</v>
+        <v>625785</v>
       </c>
       <c r="L12" s="9">
-        <v>886546</v>
+        <v>1066696</v>
       </c>
       <c r="M12" s="9">
-        <v>625785</v>
+        <v>1096055</v>
       </c>
       <c r="N12" s="9">
-        <v>1066696</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1060308</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>466198</v>
+        <v>445717</v>
       </c>
       <c r="F13" s="13">
-        <v>613771</v>
+        <v>788703</v>
       </c>
       <c r="G13" s="13">
-        <v>445717</v>
+        <v>425266</v>
       </c>
       <c r="H13" s="13">
-        <v>788703</v>
+        <v>967177</v>
       </c>
       <c r="I13" s="13">
-        <v>425266</v>
+        <v>1164029</v>
       </c>
       <c r="J13" s="13">
-        <v>967177</v>
+        <v>1218038</v>
       </c>
       <c r="K13" s="13">
-        <v>1164029</v>
+        <v>1069010</v>
       </c>
       <c r="L13" s="13">
-        <v>1218038</v>
+        <v>1330686</v>
       </c>
       <c r="M13" s="13">
-        <v>1069010</v>
+        <v>1584737</v>
       </c>
       <c r="N13" s="13">
-        <v>1330686</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1465247</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-2257</v>
+        <v>11449</v>
       </c>
       <c r="F14" s="9">
-        <v>-13309</v>
+        <v>-5954</v>
       </c>
       <c r="G14" s="9">
-        <v>11449</v>
+        <v>-34046</v>
       </c>
       <c r="H14" s="9">
-        <v>-5954</v>
+        <v>4346</v>
       </c>
       <c r="I14" s="9">
-        <v>-34046</v>
+        <v>22243</v>
       </c>
       <c r="J14" s="9">
-        <v>4346</v>
+        <v>-12357</v>
       </c>
       <c r="K14" s="9">
-        <v>22243</v>
+        <v>-7583</v>
       </c>
       <c r="L14" s="9">
-        <v>-12357</v>
+        <v>-14433</v>
       </c>
       <c r="M14" s="9">
-        <v>-7583</v>
+        <v>19437</v>
       </c>
       <c r="N14" s="9">
-        <v>-14433</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-11034</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>463941</v>
+        <v>457166</v>
       </c>
       <c r="F15" s="13">
-        <v>600462</v>
+        <v>782749</v>
       </c>
       <c r="G15" s="13">
-        <v>457166</v>
+        <v>391220</v>
       </c>
       <c r="H15" s="13">
-        <v>782749</v>
+        <v>971523</v>
       </c>
       <c r="I15" s="13">
-        <v>391220</v>
+        <v>1186272</v>
       </c>
       <c r="J15" s="13">
-        <v>971523</v>
+        <v>1205681</v>
       </c>
       <c r="K15" s="13">
-        <v>1186272</v>
+        <v>1061427</v>
       </c>
       <c r="L15" s="13">
-        <v>1205681</v>
+        <v>1316253</v>
       </c>
       <c r="M15" s="13">
-        <v>1061427</v>
+        <v>1604174</v>
       </c>
       <c r="N15" s="13">
-        <v>1316253</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1454213</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>10406</v>
+        <v>-34953</v>
       </c>
       <c r="F16" s="9">
-        <v>56753</v>
+        <v>-22424</v>
       </c>
       <c r="G16" s="9">
-        <v>-34953</v>
+        <v>-5327</v>
       </c>
       <c r="H16" s="9">
-        <v>-22424</v>
+        <v>-97427</v>
       </c>
       <c r="I16" s="9">
-        <v>-5327</v>
+        <v>-144771</v>
       </c>
       <c r="J16" s="9">
-        <v>-97427</v>
+        <v>-319553</v>
       </c>
       <c r="K16" s="9">
-        <v>-144771</v>
+        <v>189081</v>
       </c>
       <c r="L16" s="9">
-        <v>-319553</v>
+        <v>-61462</v>
       </c>
       <c r="M16" s="9">
-        <v>189081</v>
+        <v>-144422</v>
       </c>
       <c r="N16" s="9">
-        <v>-61462</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-199793</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1221,155 +1227,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>474347</v>
+        <v>422213</v>
       </c>
       <c r="F18" s="15">
-        <v>657215</v>
+        <v>760325</v>
       </c>
       <c r="G18" s="15">
-        <v>422213</v>
+        <v>385893</v>
       </c>
       <c r="H18" s="15">
-        <v>760325</v>
+        <v>874096</v>
       </c>
       <c r="I18" s="15">
-        <v>385893</v>
+        <v>1041501</v>
       </c>
       <c r="J18" s="15">
-        <v>874096</v>
+        <v>886128</v>
       </c>
       <c r="K18" s="15">
-        <v>1041501</v>
+        <v>1250508</v>
       </c>
       <c r="L18" s="15">
-        <v>886128</v>
+        <v>1254791</v>
       </c>
       <c r="M18" s="15">
-        <v>1250508</v>
+        <v>1459752</v>
       </c>
       <c r="N18" s="15">
-        <v>1254791</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1254420</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>250</v>
+        <v>16383</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>9675</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>17513</v>
       </c>
       <c r="H19" s="11">
-        <v>9675</v>
+        <v>18934</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>36564</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>40137</v>
       </c>
       <c r="K19" s="11">
-        <v>36564</v>
+        <v>49797</v>
       </c>
       <c r="L19" s="11">
-        <v>40137</v>
+        <v>45043</v>
       </c>
       <c r="M19" s="11">
-        <v>0</v>
+        <v>61597</v>
       </c>
       <c r="N19" s="11">
-        <v>45043</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>63159</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>5013</v>
+        <v>-9675</v>
       </c>
       <c r="F20" s="9">
-        <v>-3852</v>
+        <v>-17513</v>
       </c>
       <c r="G20" s="9">
-        <v>6708</v>
+        <v>-18934</v>
       </c>
       <c r="H20" s="9">
-        <v>-17513</v>
+        <v>-36564</v>
       </c>
       <c r="I20" s="9">
-        <v>-1421</v>
+        <v>-40136</v>
       </c>
       <c r="J20" s="9">
-        <v>-17630</v>
+        <v>-49797</v>
       </c>
       <c r="K20" s="9">
-        <v>-40137</v>
+        <v>-45043</v>
       </c>
       <c r="L20" s="9">
-        <v>-49797</v>
+        <v>-61597</v>
       </c>
       <c r="M20" s="9">
-        <v>4754</v>
+        <v>-63159</v>
       </c>
       <c r="N20" s="9">
-        <v>-61597</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-33526</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>479610</v>
+        <v>428921</v>
       </c>
       <c r="F21" s="13">
-        <v>653363</v>
+        <v>752487</v>
       </c>
       <c r="G21" s="13">
-        <v>428921</v>
+        <v>384472</v>
       </c>
       <c r="H21" s="13">
-        <v>752487</v>
+        <v>856466</v>
       </c>
       <c r="I21" s="13">
-        <v>384472</v>
+        <v>1037928</v>
       </c>
       <c r="J21" s="13">
-        <v>856466</v>
+        <v>876468</v>
       </c>
       <c r="K21" s="13">
-        <v>1037928</v>
+        <v>1255262</v>
       </c>
       <c r="L21" s="13">
-        <v>876468</v>
+        <v>1238237</v>
       </c>
       <c r="M21" s="13">
-        <v>1255262</v>
+        <v>1458189</v>
       </c>
       <c r="N21" s="13">
-        <v>1238237</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1284053</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1406,44 +1412,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>479610</v>
+        <v>428921</v>
       </c>
       <c r="F23" s="13">
-        <v>653363</v>
+        <v>752487</v>
       </c>
       <c r="G23" s="13">
-        <v>428921</v>
+        <v>384472</v>
       </c>
       <c r="H23" s="13">
-        <v>752487</v>
+        <v>856466</v>
       </c>
       <c r="I23" s="13">
-        <v>384472</v>
+        <v>1037928</v>
       </c>
       <c r="J23" s="13">
-        <v>856466</v>
+        <v>876468</v>
       </c>
       <c r="K23" s="13">
-        <v>1037928</v>
+        <v>1255262</v>
       </c>
       <c r="L23" s="13">
-        <v>876468</v>
+        <v>1238237</v>
       </c>
       <c r="M23" s="13">
-        <v>1255262</v>
+        <v>1458189</v>
       </c>
       <c r="N23" s="13">
-        <v>1238237</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1284053</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1458,7 +1464,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1473,7 +1479,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1488,7 +1494,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1540,7 +1546,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1548,38 +1554,38 @@
         <v>30</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9">
-        <v>1179740</v>
+      <c r="E29" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F29" s="9">
-        <v>1300000</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>31</v>
+        <v>2310200</v>
+      </c>
+      <c r="G29" s="9">
+        <v>3117523</v>
       </c>
       <c r="H29" s="9">
-        <v>2310200</v>
+        <v>4939830</v>
       </c>
       <c r="I29" s="9">
-        <v>3117523</v>
+        <v>4784712</v>
       </c>
       <c r="J29" s="9">
-        <v>4974596</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>31</v>
+        <v>2934180</v>
+      </c>
+      <c r="K29" s="9">
+        <v>3505550</v>
       </c>
       <c r="L29" s="9">
-        <v>2934180</v>
+        <v>2005570</v>
       </c>
       <c r="M29" s="9">
-        <v>3505550</v>
+        <v>5156710</v>
       </c>
       <c r="N29" s="9">
-        <v>2005570</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2483500</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1627,7 +1633,7 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>73000</v>
+        <v>48000</v>
       </c>
       <c r="F31" s="9">
         <v>48000</v>
@@ -1644,8 +1650,8 @@
       <c r="J31" s="9">
         <v>48000</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>31</v>
+      <c r="K31" s="9">
+        <v>48000</v>
       </c>
       <c r="L31" s="9">
         <v>48000</v>
@@ -1654,10 +1660,10 @@
         <v>48000</v>
       </c>
       <c r="N31" s="9">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>44870</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -1666,37 +1672,37 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>186671</v>
+        <v>156624</v>
       </c>
       <c r="F32" s="11">
-        <v>108026</v>
+        <v>673452</v>
       </c>
       <c r="G32" s="11">
-        <v>156624</v>
+        <v>664056</v>
       </c>
       <c r="H32" s="11">
-        <v>673452</v>
+        <v>767564</v>
       </c>
       <c r="I32" s="11">
-        <v>664056</v>
+        <v>845775</v>
       </c>
       <c r="J32" s="11">
-        <v>767563</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>31</v>
+        <v>929283</v>
+      </c>
+      <c r="K32" s="11">
+        <v>868509</v>
       </c>
       <c r="L32" s="11">
-        <v>929283</v>
+        <v>806295</v>
       </c>
       <c r="M32" s="11">
-        <v>868509</v>
+        <v>801347</v>
       </c>
       <c r="N32" s="11">
-        <v>806295</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>833487</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>36</v>
       </c>
@@ -1708,34 +1714,34 @@
         <v>8285</v>
       </c>
       <c r="F33" s="9">
-        <v>8285</v>
+        <v>8282</v>
       </c>
       <c r="G33" s="9">
-        <v>8285</v>
+        <v>8282</v>
       </c>
       <c r="H33" s="9">
-        <v>8282</v>
+        <v>220</v>
       </c>
       <c r="I33" s="9">
         <v>8282</v>
       </c>
       <c r="J33" s="9">
-        <v>220</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>31</v>
+        <v>8282</v>
+      </c>
+      <c r="K33" s="9">
+        <v>8282</v>
       </c>
       <c r="L33" s="9">
-        <v>8282</v>
+        <v>8288</v>
       </c>
       <c r="M33" s="9">
-        <v>8282</v>
+        <v>8288</v>
       </c>
       <c r="N33" s="9">
-        <v>8288</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8225</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>37</v>
       </c>
@@ -1744,37 +1750,37 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>3851</v>
+        <v>38432</v>
       </c>
       <c r="F34" s="11">
-        <v>9046</v>
+        <v>31614</v>
       </c>
       <c r="G34" s="11">
-        <v>38432</v>
+        <v>24100</v>
       </c>
       <c r="H34" s="11">
-        <v>31614</v>
+        <v>18426</v>
       </c>
       <c r="I34" s="11">
-        <v>24100</v>
+        <v>11977</v>
       </c>
       <c r="J34" s="11">
-        <v>18426</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>31</v>
+        <v>45573</v>
+      </c>
+      <c r="K34" s="11">
+        <v>38844</v>
       </c>
       <c r="L34" s="11">
-        <v>45573</v>
+        <v>31721</v>
       </c>
       <c r="M34" s="11">
-        <v>38844</v>
+        <v>25774</v>
       </c>
       <c r="N34" s="11">
-        <v>31721</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20486</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>38</v>
       </c>
@@ -1783,37 +1789,37 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>28757</v>
+        <v>14654</v>
       </c>
       <c r="F35" s="9">
-        <v>25796</v>
+        <v>5077</v>
       </c>
       <c r="G35" s="9">
-        <v>14654</v>
+        <v>17448</v>
       </c>
       <c r="H35" s="9">
-        <v>5077</v>
+        <v>30680</v>
       </c>
       <c r="I35" s="9">
-        <v>17448</v>
+        <v>17488</v>
       </c>
       <c r="J35" s="9">
-        <v>21491</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>31</v>
+        <v>34158</v>
+      </c>
+      <c r="K35" s="9">
+        <v>38640</v>
       </c>
       <c r="L35" s="9">
-        <v>34158</v>
+        <v>18763</v>
       </c>
       <c r="M35" s="9">
-        <v>38640</v>
+        <v>9271</v>
       </c>
       <c r="N35" s="9">
-        <v>18763</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9905</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>39</v>
       </c>
@@ -1822,37 +1828,37 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>115588</v>
+        <v>170092</v>
       </c>
       <c r="F36" s="11">
-        <v>148723</v>
+        <v>330210</v>
       </c>
       <c r="G36" s="11">
-        <v>170092</v>
+        <v>391327</v>
       </c>
       <c r="H36" s="11">
-        <v>330210</v>
+        <v>474759</v>
       </c>
       <c r="I36" s="11">
-        <v>391327</v>
+        <v>493409</v>
       </c>
       <c r="J36" s="11">
-        <v>469422</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>31</v>
+        <v>479883</v>
+      </c>
+      <c r="K36" s="11">
+        <v>385294</v>
       </c>
       <c r="L36" s="11">
-        <v>479883</v>
+        <v>279729</v>
       </c>
       <c r="M36" s="11">
-        <v>385294</v>
+        <v>171559</v>
       </c>
       <c r="N36" s="11">
-        <v>279729</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>485758</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>40</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>41</v>
       </c>
@@ -1900,74 +1906,74 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>2850</v>
+        <v>4915</v>
       </c>
       <c r="F38" s="11">
-        <v>3845</v>
+        <v>6812</v>
       </c>
       <c r="G38" s="11">
-        <v>4915</v>
+        <v>19643</v>
       </c>
       <c r="H38" s="11">
-        <v>6812</v>
+        <v>33357</v>
       </c>
       <c r="I38" s="11">
-        <v>19643</v>
+        <v>35283</v>
       </c>
       <c r="J38" s="11">
-        <v>33357</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>31</v>
+        <v>25186</v>
+      </c>
+      <c r="K38" s="11">
+        <v>48207</v>
       </c>
       <c r="L38" s="11">
-        <v>25186</v>
+        <v>38684</v>
       </c>
       <c r="M38" s="11">
-        <v>48207</v>
+        <v>63832</v>
       </c>
       <c r="N38" s="11">
-        <v>38684</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>1598742</v>
+        <v>441002</v>
       </c>
       <c r="F39" s="15">
-        <v>1651721</v>
+        <v>3413647</v>
       </c>
       <c r="G39" s="15">
-        <v>441002</v>
+        <v>4290379</v>
       </c>
       <c r="H39" s="15">
-        <v>3413647</v>
+        <v>6312836</v>
       </c>
       <c r="I39" s="15">
-        <v>4290379</v>
+        <v>6244926</v>
       </c>
       <c r="J39" s="15">
-        <v>6333075</v>
+        <v>4504545</v>
       </c>
       <c r="K39" s="15">
-        <v>0</v>
+        <v>4941326</v>
       </c>
       <c r="L39" s="15">
-        <v>4504545</v>
+        <v>3237050</v>
       </c>
       <c r="M39" s="15">
-        <v>4941326</v>
+        <v>6284781</v>
       </c>
       <c r="N39" s="15">
-        <v>3237050</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3932094</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1982,7 +1988,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1997,7 +2003,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2012,7 +2018,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>42</v>
       </c>
@@ -2049,7 +2055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2064,7 +2070,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>29</v>
       </c>
@@ -2072,38 +2078,38 @@
         <v>30</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9">
-        <v>3634160</v>
+      <c r="E45" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F45" s="9">
-        <v>3882320</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>31</v>
+        <v>3751823</v>
+      </c>
+      <c r="G45" s="9">
+        <v>4468840</v>
       </c>
       <c r="H45" s="9">
-        <v>3751823</v>
+        <v>2687578</v>
       </c>
       <c r="I45" s="9">
-        <v>4468840</v>
+        <v>501000</v>
       </c>
       <c r="J45" s="9">
-        <v>2687578</v>
+        <v>2504720</v>
       </c>
       <c r="K45" s="9">
-        <v>501000</v>
+        <v>1785010</v>
       </c>
       <c r="L45" s="9">
-        <v>2504720</v>
+        <v>5343810</v>
       </c>
       <c r="M45" s="9">
-        <v>1785010</v>
+        <v>-8996675</v>
       </c>
       <c r="N45" s="9">
-        <v>5343810</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2469743</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>32</v>
       </c>
@@ -2111,14 +2117,14 @@
         <v>30</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>31</v>
+      <c r="E46" s="11">
+        <v>11364555</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="11">
-        <v>11364555</v>
+      <c r="G46" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>31</v>
@@ -2142,7 +2148,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>33</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>34</v>
       </c>
@@ -2190,37 +2196,37 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>207557</v>
+        <v>752293</v>
       </c>
       <c r="F48" s="11">
-        <v>317021</v>
+        <v>220658</v>
       </c>
       <c r="G48" s="11">
-        <v>752293</v>
+        <v>264765</v>
       </c>
       <c r="H48" s="11">
-        <v>220658</v>
+        <v>294586</v>
       </c>
       <c r="I48" s="11">
-        <v>264765</v>
+        <v>270066</v>
       </c>
       <c r="J48" s="11">
-        <v>294586</v>
+        <v>187856</v>
       </c>
       <c r="K48" s="11">
-        <v>270066</v>
+        <v>262956</v>
       </c>
       <c r="L48" s="11">
-        <v>187856</v>
+        <v>206819</v>
       </c>
       <c r="M48" s="11">
-        <v>262956</v>
+        <v>234847</v>
       </c>
       <c r="N48" s="11">
-        <v>206819</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>126305</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>36</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>37</v>
       </c>
@@ -2268,37 +2274,37 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>12466</v>
+        <v>1067</v>
       </c>
       <c r="F50" s="11">
-        <v>36545</v>
+        <v>0</v>
       </c>
       <c r="G50" s="11">
-        <v>1067</v>
+        <v>0</v>
       </c>
       <c r="H50" s="11">
         <v>0</v>
       </c>
       <c r="I50" s="11">
-        <v>0</v>
+        <v>39037</v>
       </c>
       <c r="J50" s="11">
         <v>0</v>
       </c>
       <c r="K50" s="11">
-        <v>39037</v>
+        <v>0</v>
       </c>
       <c r="L50" s="11">
         <v>0</v>
       </c>
       <c r="M50" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>38</v>
       </c>
@@ -2307,37 +2313,37 @@
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
-        <v>17869</v>
+        <v>9593</v>
       </c>
       <c r="F51" s="9">
-        <v>10795</v>
+        <v>35652</v>
       </c>
       <c r="G51" s="9">
-        <v>9593</v>
+        <v>19832</v>
       </c>
       <c r="H51" s="9">
-        <v>35652</v>
+        <v>2459</v>
       </c>
       <c r="I51" s="9">
-        <v>19832</v>
+        <v>36520</v>
       </c>
       <c r="J51" s="9">
-        <v>2459</v>
+        <v>18635</v>
       </c>
       <c r="K51" s="9">
-        <v>36520</v>
+        <v>0</v>
       </c>
       <c r="L51" s="9">
-        <v>18635</v>
+        <v>7333</v>
       </c>
       <c r="M51" s="9">
-        <v>0</v>
+        <v>13005</v>
       </c>
       <c r="N51" s="9">
-        <v>7333</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22050</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>39</v>
       </c>
@@ -2346,37 +2352,37 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>462415</v>
+        <v>645534</v>
       </c>
       <c r="F52" s="11">
-        <v>499933</v>
+        <v>534621</v>
       </c>
       <c r="G52" s="11">
-        <v>645534</v>
+        <v>447006</v>
       </c>
       <c r="H52" s="11">
-        <v>534621</v>
+        <v>480624</v>
       </c>
       <c r="I52" s="11">
-        <v>447006</v>
+        <v>474934</v>
       </c>
       <c r="J52" s="11">
-        <v>480624</v>
+        <v>451413</v>
       </c>
       <c r="K52" s="11">
-        <v>474934</v>
+        <v>456100</v>
       </c>
       <c r="L52" s="11">
-        <v>451413</v>
+        <v>351001</v>
       </c>
       <c r="M52" s="11">
-        <v>456100</v>
+        <v>732479</v>
       </c>
       <c r="N52" s="11">
-        <v>351001</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>239331</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>40</v>
       </c>
@@ -2396,14 +2402,14 @@
       <c r="H53" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>31</v>
+      <c r="I53" s="9">
+        <v>1814</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K53" s="9">
-        <v>1814</v>
+      <c r="K53" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L53" s="9" t="s">
         <v>31</v>
@@ -2415,7 +2421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>41</v>
       </c>
@@ -2424,74 +2430,74 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>19414</v>
+        <v>24828</v>
       </c>
       <c r="F54" s="11">
-        <v>20991</v>
+        <v>30375</v>
       </c>
       <c r="G54" s="11">
-        <v>24828</v>
+        <v>27638</v>
       </c>
       <c r="H54" s="11">
-        <v>30375</v>
+        <v>19326</v>
       </c>
       <c r="I54" s="11">
-        <v>27638</v>
+        <v>11603</v>
       </c>
       <c r="J54" s="11">
-        <v>19326</v>
+        <v>40655</v>
       </c>
       <c r="K54" s="11">
-        <v>11603</v>
+        <v>7025</v>
       </c>
       <c r="L54" s="11">
-        <v>40655</v>
+        <v>39403</v>
       </c>
       <c r="M54" s="11">
-        <v>7025</v>
+        <v>-59579</v>
       </c>
       <c r="N54" s="11">
-        <v>39403</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>4353881</v>
+        <v>12797870</v>
       </c>
       <c r="F55" s="15">
-        <v>4767605</v>
+        <v>4573129</v>
       </c>
       <c r="G55" s="15">
-        <v>12797870</v>
+        <v>5228081</v>
       </c>
       <c r="H55" s="15">
-        <v>4573129</v>
+        <v>3484573</v>
       </c>
       <c r="I55" s="15">
-        <v>5228081</v>
+        <v>1334974</v>
       </c>
       <c r="J55" s="15">
-        <v>3484573</v>
+        <v>3203279</v>
       </c>
       <c r="K55" s="15">
-        <v>1334974</v>
+        <v>2511091</v>
       </c>
       <c r="L55" s="15">
-        <v>3203279</v>
+        <v>5948366</v>
       </c>
       <c r="M55" s="15">
-        <v>2511091</v>
+        <v>-8075922</v>
       </c>
       <c r="N55" s="15">
-        <v>5948366</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2857429</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2506,7 +2512,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2521,7 +2527,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2536,7 +2542,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>43</v>
       </c>
@@ -2573,7 +2579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2588,7 +2594,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>29</v>
       </c>
@@ -2596,38 +2602,38 @@
         <v>30</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9">
-        <v>3513900</v>
+      <c r="E61" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F61" s="9">
-        <v>3117820</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>31</v>
+        <v>2944500</v>
+      </c>
+      <c r="G61" s="9">
+        <v>2654595</v>
       </c>
       <c r="H61" s="9">
-        <v>2944500</v>
+        <v>2842696</v>
       </c>
       <c r="I61" s="9">
-        <v>2654595</v>
+        <v>2343470</v>
       </c>
       <c r="J61" s="9">
-        <v>2842696</v>
+        <v>1933350</v>
       </c>
       <c r="K61" s="9">
-        <v>2343470</v>
+        <v>3284990</v>
       </c>
       <c r="L61" s="9">
-        <v>1933350</v>
+        <v>2192670</v>
       </c>
       <c r="M61" s="9">
-        <v>3284990</v>
+        <v>-7377265</v>
       </c>
       <c r="N61" s="9">
-        <v>2192670</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2469743</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>32</v>
       </c>
@@ -2635,14 +2641,14 @@
         <v>30</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>31</v>
+      <c r="E62" s="11">
+        <v>10031175</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G62" s="11">
-        <v>10031175</v>
+      <c r="G62" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>31</v>
@@ -2666,7 +2672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>33</v>
       </c>
@@ -2675,7 +2681,7 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="F63" s="9">
         <v>0</v>
@@ -2699,13 +2705,13 @@
         <v>0</v>
       </c>
       <c r="M63" s="9">
-        <v>0</v>
+        <v>65310</v>
       </c>
       <c r="N63" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>34</v>
       </c>
@@ -2714,37 +2720,37 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>285202</v>
+        <v>233743</v>
       </c>
       <c r="F64" s="11">
-        <v>269423</v>
+        <v>230054</v>
       </c>
       <c r="G64" s="11">
-        <v>233743</v>
+        <v>161257</v>
       </c>
       <c r="H64" s="11">
-        <v>230054</v>
+        <v>216374</v>
       </c>
       <c r="I64" s="11">
-        <v>161257</v>
+        <v>259562</v>
       </c>
       <c r="J64" s="11">
-        <v>216374</v>
+        <v>248630</v>
       </c>
       <c r="K64" s="11">
-        <v>259562</v>
+        <v>281048</v>
       </c>
       <c r="L64" s="11">
-        <v>248630</v>
+        <v>211767</v>
       </c>
       <c r="M64" s="11">
-        <v>281048</v>
+        <v>202707</v>
       </c>
       <c r="N64" s="11">
-        <v>211767</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>272074</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>36</v>
       </c>
@@ -2753,13 +2759,13 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65" s="9">
         <v>0</v>
       </c>
       <c r="G65" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H65" s="9">
         <v>0</v>
@@ -2777,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="M65" s="9">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N65" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>37</v>
       </c>
@@ -2792,37 +2798,37 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>7272</v>
+        <v>7887</v>
       </c>
       <c r="F66" s="11">
-        <v>7158</v>
+        <v>7514</v>
       </c>
       <c r="G66" s="11">
-        <v>7887</v>
+        <v>5674</v>
       </c>
       <c r="H66" s="11">
-        <v>7514</v>
+        <v>6449</v>
       </c>
       <c r="I66" s="11">
-        <v>5674</v>
+        <v>7067</v>
       </c>
       <c r="J66" s="11">
-        <v>6449</v>
+        <v>6729</v>
       </c>
       <c r="K66" s="11">
-        <v>7067</v>
+        <v>7123</v>
       </c>
       <c r="L66" s="11">
-        <v>6729</v>
+        <v>5947</v>
       </c>
       <c r="M66" s="11">
-        <v>7123</v>
+        <v>5289</v>
       </c>
       <c r="N66" s="11">
-        <v>5947</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7054</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>38</v>
       </c>
@@ -2831,37 +2837,37 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <v>20830</v>
+        <v>19170</v>
       </c>
       <c r="F67" s="9">
-        <v>21937</v>
+        <v>23281</v>
       </c>
       <c r="G67" s="9">
-        <v>19170</v>
+        <v>6600</v>
       </c>
       <c r="H67" s="9">
-        <v>23281</v>
+        <v>15651</v>
       </c>
       <c r="I67" s="9">
-        <v>6600</v>
+        <v>14868</v>
       </c>
       <c r="J67" s="9">
-        <v>15651</v>
+        <v>14153</v>
       </c>
       <c r="K67" s="9">
-        <v>14868</v>
+        <v>19877</v>
       </c>
       <c r="L67" s="9">
-        <v>14153</v>
+        <v>16825</v>
       </c>
       <c r="M67" s="9">
-        <v>19877</v>
+        <v>12421</v>
       </c>
       <c r="N67" s="9">
-        <v>16825</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24508</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>39</v>
       </c>
@@ -2870,37 +2876,37 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>429280</v>
+        <v>-1361628</v>
       </c>
       <c r="F68" s="11">
-        <v>478564</v>
+        <v>473504</v>
       </c>
       <c r="G68" s="11">
-        <v>-1361628</v>
+        <v>363574</v>
       </c>
       <c r="H68" s="11">
-        <v>473504</v>
+        <v>461974</v>
       </c>
       <c r="I68" s="11">
-        <v>363574</v>
+        <v>584715</v>
       </c>
       <c r="J68" s="11">
-        <v>461974</v>
+        <v>546002</v>
       </c>
       <c r="K68" s="11">
-        <v>584715</v>
+        <v>561664</v>
       </c>
       <c r="L68" s="11">
-        <v>546002</v>
+        <v>459171</v>
       </c>
       <c r="M68" s="11">
-        <v>561664</v>
+        <v>418281</v>
       </c>
       <c r="N68" s="11">
-        <v>459171</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>558551</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>40</v>
       </c>
@@ -2920,14 +2926,14 @@
       <c r="H69" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I69" s="9" t="s">
-        <v>31</v>
+      <c r="I69" s="9">
+        <v>1814</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K69" s="9">
-        <v>1814</v>
+      <c r="K69" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L69" s="9" t="s">
         <v>31</v>
@@ -2939,7 +2945,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>41</v>
       </c>
@@ -2948,74 +2954,74 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>18419</v>
+        <v>22931</v>
       </c>
       <c r="F70" s="11">
-        <v>19921</v>
+        <v>17544</v>
       </c>
       <c r="G70" s="11">
-        <v>22931</v>
+        <v>13924</v>
       </c>
       <c r="H70" s="11">
-        <v>17544</v>
+        <v>17400</v>
       </c>
       <c r="I70" s="11">
-        <v>13924</v>
+        <v>20357</v>
       </c>
       <c r="J70" s="11">
-        <v>17400</v>
+        <v>17634</v>
       </c>
       <c r="K70" s="11">
-        <v>20357</v>
+        <v>16548</v>
       </c>
       <c r="L70" s="11">
-        <v>17634</v>
+        <v>14255</v>
       </c>
       <c r="M70" s="11">
-        <v>16548</v>
+        <v>-41609</v>
       </c>
       <c r="N70" s="11">
-        <v>14255</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18959</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>4299903</v>
+        <v>8953281</v>
       </c>
       <c r="F71" s="15">
-        <v>3914823</v>
+        <v>3696397</v>
       </c>
       <c r="G71" s="15">
-        <v>8953281</v>
+        <v>3205624</v>
       </c>
       <c r="H71" s="15">
-        <v>3696397</v>
+        <v>3560544</v>
       </c>
       <c r="I71" s="15">
-        <v>3205624</v>
+        <v>3231853</v>
       </c>
       <c r="J71" s="15">
-        <v>3560544</v>
+        <v>2766498</v>
       </c>
       <c r="K71" s="15">
-        <v>3231853</v>
+        <v>4171250</v>
       </c>
       <c r="L71" s="15">
-        <v>2766498</v>
+        <v>2900635</v>
       </c>
       <c r="M71" s="15">
-        <v>4171250</v>
+        <v>-6714817</v>
       </c>
       <c r="N71" s="15">
-        <v>2900635</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3350889</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3030,7 +3036,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3045,7 +3051,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3060,7 +3066,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>44</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3112,7 +3118,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>29</v>
       </c>
@@ -3120,38 +3126,38 @@
         <v>30</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9">
-        <v>1300000</v>
+      <c r="E77" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F77" s="9">
-        <v>2064500</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>31</v>
+        <v>3117523</v>
+      </c>
+      <c r="G77" s="9">
+        <v>4939830</v>
       </c>
       <c r="H77" s="9">
-        <v>3117523</v>
+        <v>4784712</v>
       </c>
       <c r="I77" s="9">
-        <v>4939830</v>
+        <v>2934180</v>
       </c>
       <c r="J77" s="9">
-        <v>4784712</v>
+        <v>3505550</v>
       </c>
       <c r="K77" s="9">
-        <v>2934180</v>
+        <v>2005570</v>
       </c>
       <c r="L77" s="9">
-        <v>3505550</v>
+        <v>5156710</v>
       </c>
       <c r="M77" s="9">
-        <v>2005570</v>
+        <v>2483500</v>
       </c>
       <c r="N77" s="9">
-        <v>5156710</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2483500</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>32</v>
       </c>
@@ -3159,14 +3165,14 @@
         <v>30</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>31</v>
+      <c r="E78" s="11">
+        <v>3320200</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G78" s="11">
-        <v>3320200</v>
+      <c r="G78" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H78" s="11" t="s">
         <v>31</v>
@@ -3190,7 +3196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>33</v>
       </c>
@@ -3223,13 +3229,13 @@
         <v>48000</v>
       </c>
       <c r="M79" s="9">
-        <v>48000</v>
+        <v>44870</v>
       </c>
       <c r="N79" s="9">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>44870</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>34</v>
       </c>
@@ -3238,37 +3244,37 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>109026</v>
+        <v>675173</v>
       </c>
       <c r="F80" s="11">
-        <v>156624</v>
+        <v>664056</v>
       </c>
       <c r="G80" s="11">
-        <v>675173</v>
+        <v>767564</v>
       </c>
       <c r="H80" s="11">
-        <v>664056</v>
+        <v>845775</v>
       </c>
       <c r="I80" s="11">
-        <v>767564</v>
+        <v>856279</v>
       </c>
       <c r="J80" s="11">
-        <v>845775</v>
+        <v>868509</v>
       </c>
       <c r="K80" s="11">
-        <v>856279</v>
+        <v>806295</v>
       </c>
       <c r="L80" s="11">
-        <v>868509</v>
+        <v>801347</v>
       </c>
       <c r="M80" s="11">
-        <v>806295</v>
+        <v>833487</v>
       </c>
       <c r="N80" s="11">
-        <v>801347</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>687718</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>36</v>
       </c>
@@ -3277,37 +3283,37 @@
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
-        <v>8285</v>
+        <v>8282</v>
       </c>
       <c r="F81" s="9">
-        <v>8285</v>
+        <v>8282</v>
       </c>
       <c r="G81" s="9">
-        <v>8282</v>
+        <v>220</v>
       </c>
       <c r="H81" s="9">
         <v>8282</v>
       </c>
       <c r="I81" s="9">
-        <v>220</v>
+        <v>8282</v>
       </c>
       <c r="J81" s="9">
         <v>8282</v>
       </c>
       <c r="K81" s="9">
-        <v>8282</v>
+        <v>8288</v>
       </c>
       <c r="L81" s="9">
-        <v>8282</v>
+        <v>8288</v>
       </c>
       <c r="M81" s="9">
-        <v>8288</v>
+        <v>8225</v>
       </c>
       <c r="N81" s="9">
-        <v>8288</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8225</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>37</v>
       </c>
@@ -3316,37 +3322,37 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>9045</v>
+        <v>31612</v>
       </c>
       <c r="F82" s="11">
-        <v>38432</v>
+        <v>24100</v>
       </c>
       <c r="G82" s="11">
-        <v>31612</v>
+        <v>18426</v>
       </c>
       <c r="H82" s="11">
-        <v>24100</v>
+        <v>11977</v>
       </c>
       <c r="I82" s="11">
-        <v>18426</v>
+        <v>43947</v>
       </c>
       <c r="J82" s="11">
-        <v>11977</v>
+        <v>38844</v>
       </c>
       <c r="K82" s="11">
-        <v>43947</v>
+        <v>31721</v>
       </c>
       <c r="L82" s="11">
-        <v>38844</v>
+        <v>25774</v>
       </c>
       <c r="M82" s="11">
-        <v>31721</v>
+        <v>20486</v>
       </c>
       <c r="N82" s="11">
-        <v>25774</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13432</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>38</v>
       </c>
@@ -3355,37 +3361,37 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>25795</v>
+        <v>5077</v>
       </c>
       <c r="F83" s="9">
-        <v>14654</v>
+        <v>17448</v>
       </c>
       <c r="G83" s="9">
-        <v>5077</v>
+        <v>30680</v>
       </c>
       <c r="H83" s="9">
-        <v>17448</v>
+        <v>17488</v>
       </c>
       <c r="I83" s="9">
-        <v>30680</v>
+        <v>39140</v>
       </c>
       <c r="J83" s="9">
-        <v>17488</v>
+        <v>38640</v>
       </c>
       <c r="K83" s="9">
-        <v>39140</v>
+        <v>18763</v>
       </c>
       <c r="L83" s="9">
-        <v>38640</v>
+        <v>9271</v>
       </c>
       <c r="M83" s="9">
-        <v>18763</v>
+        <v>9905</v>
       </c>
       <c r="N83" s="9">
-        <v>9271</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7447</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>39</v>
       </c>
@@ -3394,37 +3400,37 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>148723</v>
+        <v>2177253</v>
       </c>
       <c r="F84" s="11">
-        <v>170092</v>
+        <v>391327</v>
       </c>
       <c r="G84" s="11">
-        <v>2177253</v>
+        <v>474759</v>
       </c>
       <c r="H84" s="11">
-        <v>391327</v>
+        <v>493409</v>
       </c>
       <c r="I84" s="11">
-        <v>474759</v>
+        <v>383628</v>
       </c>
       <c r="J84" s="11">
-        <v>493409</v>
+        <v>385294</v>
       </c>
       <c r="K84" s="11">
-        <v>383628</v>
+        <v>279729</v>
       </c>
       <c r="L84" s="11">
-        <v>385294</v>
+        <v>171559</v>
       </c>
       <c r="M84" s="11">
-        <v>279729</v>
+        <v>485758</v>
       </c>
       <c r="N84" s="11">
-        <v>171559</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>166538</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>40</v>
       </c>
@@ -3444,14 +3450,14 @@
       <c r="H85" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I85" s="9" t="s">
-        <v>31</v>
+      <c r="I85" s="9">
+        <v>0</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K85" s="9">
-        <v>0</v>
+      <c r="K85" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L85" s="9" t="s">
         <v>31</v>
@@ -3463,7 +3469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>41</v>
       </c>
@@ -3472,74 +3478,74 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>3845</v>
+        <v>6812</v>
       </c>
       <c r="F86" s="11">
-        <v>4915</v>
+        <v>19643</v>
       </c>
       <c r="G86" s="11">
-        <v>6812</v>
+        <v>33357</v>
       </c>
       <c r="H86" s="11">
-        <v>19643</v>
+        <v>35283</v>
       </c>
       <c r="I86" s="11">
-        <v>33357</v>
+        <v>26529</v>
       </c>
       <c r="J86" s="11">
-        <v>35283</v>
+        <v>48207</v>
       </c>
       <c r="K86" s="11">
-        <v>26529</v>
+        <v>38684</v>
       </c>
       <c r="L86" s="11">
-        <v>48207</v>
+        <v>63832</v>
       </c>
       <c r="M86" s="11">
-        <v>38684</v>
+        <v>45863</v>
       </c>
       <c r="N86" s="11">
-        <v>63832</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26904</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>1652719</v>
+        <v>6272409</v>
       </c>
       <c r="F87" s="15">
-        <v>2505502</v>
+        <v>4290379</v>
       </c>
       <c r="G87" s="15">
-        <v>6272409</v>
+        <v>6312836</v>
       </c>
       <c r="H87" s="15">
-        <v>4290379</v>
+        <v>6244926</v>
       </c>
       <c r="I87" s="15">
-        <v>6312836</v>
+        <v>4339985</v>
       </c>
       <c r="J87" s="15">
-        <v>6244926</v>
+        <v>4941326</v>
       </c>
       <c r="K87" s="15">
-        <v>4339985</v>
+        <v>3237050</v>
       </c>
       <c r="L87" s="15">
-        <v>4941326</v>
+        <v>6284781</v>
       </c>
       <c r="M87" s="15">
-        <v>3237050</v>
+        <v>3932094</v>
       </c>
       <c r="N87" s="15">
-        <v>6284781</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3438634</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3554,7 +3560,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3569,7 +3575,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3584,7 +3590,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>45</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3636,7 +3642,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>29</v>
       </c>
@@ -3644,38 +3650,38 @@
         <v>46</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9">
-        <v>15837</v>
+      <c r="E93" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F93" s="9">
-        <v>16057</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>31</v>
+        <v>57467</v>
+      </c>
+      <c r="G93" s="9">
+        <v>87704</v>
       </c>
       <c r="H93" s="9">
-        <v>57467</v>
+        <v>154963</v>
       </c>
       <c r="I93" s="9">
-        <v>87704</v>
+        <v>155104</v>
       </c>
       <c r="J93" s="9">
-        <v>153103</v>
-      </c>
-      <c r="K93" s="9" t="s">
-        <v>31</v>
+        <v>88623</v>
+      </c>
+      <c r="K93" s="9">
+        <v>107789</v>
       </c>
       <c r="L93" s="9">
-        <v>88623</v>
+        <v>50542</v>
       </c>
       <c r="M93" s="9">
-        <v>107789</v>
+        <v>163777</v>
       </c>
       <c r="N93" s="9">
-        <v>50542</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>79462</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>32</v>
       </c>
@@ -3714,7 +3720,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>33</v>
       </c>
@@ -3723,7 +3729,7 @@
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="F95" s="9">
         <v>57</v>
@@ -3740,8 +3746,8 @@
       <c r="J95" s="9">
         <v>57</v>
       </c>
-      <c r="K95" s="9" t="s">
-        <v>31</v>
+      <c r="K95" s="9">
+        <v>57</v>
       </c>
       <c r="L95" s="9">
         <v>57</v>
@@ -3750,10 +3756,10 @@
         <v>57</v>
       </c>
       <c r="N95" s="9">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12453</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>34</v>
       </c>
@@ -3762,37 +3768,37 @@
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
-        <v>9786</v>
+        <v>9886</v>
       </c>
       <c r="F96" s="11">
-        <v>15547</v>
+        <v>67521</v>
       </c>
       <c r="G96" s="11">
-        <v>9886</v>
+        <v>66987</v>
       </c>
       <c r="H96" s="11">
-        <v>67521</v>
+        <v>77542</v>
       </c>
       <c r="I96" s="11">
-        <v>66987</v>
+        <v>85578</v>
       </c>
       <c r="J96" s="11">
-        <v>77542</v>
-      </c>
-      <c r="K96" s="11" t="s">
-        <v>31</v>
+        <v>94633</v>
+      </c>
+      <c r="K96" s="11">
+        <v>92018</v>
       </c>
       <c r="L96" s="11">
-        <v>94633</v>
+        <v>104351</v>
       </c>
       <c r="M96" s="11">
-        <v>92018</v>
+        <v>103408</v>
       </c>
       <c r="N96" s="11">
-        <v>104351</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>121922</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>36</v>
       </c>
@@ -3804,34 +3810,34 @@
         <v>2562</v>
       </c>
       <c r="F97" s="9">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="G97" s="9">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="H97" s="9">
-        <v>2561</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9">
         <v>2561</v>
       </c>
       <c r="J97" s="9">
-        <v>17</v>
-      </c>
-      <c r="K97" s="9" t="s">
-        <v>31</v>
+        <v>2562</v>
+      </c>
+      <c r="K97" s="9">
+        <v>2562</v>
       </c>
       <c r="L97" s="9">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="M97" s="9">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="N97" s="9">
-        <v>2559</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>37</v>
       </c>
@@ -3840,37 +3846,37 @@
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
-        <v>1388</v>
+        <v>25835</v>
       </c>
       <c r="F98" s="11">
-        <v>2641</v>
+        <v>24757</v>
       </c>
       <c r="G98" s="11">
-        <v>25835</v>
+        <v>18873</v>
       </c>
       <c r="H98" s="11">
-        <v>24757</v>
+        <v>14428</v>
       </c>
       <c r="I98" s="11">
-        <v>18873</v>
+        <v>9379</v>
       </c>
       <c r="J98" s="11">
-        <v>14428</v>
-      </c>
-      <c r="K98" s="11" t="s">
-        <v>31</v>
+        <v>61386</v>
+      </c>
+      <c r="K98" s="11">
+        <v>52322</v>
       </c>
       <c r="L98" s="11">
-        <v>61386</v>
+        <v>42727</v>
       </c>
       <c r="M98" s="11">
-        <v>52322</v>
+        <v>34717</v>
       </c>
       <c r="N98" s="11">
-        <v>42727</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27594</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>38</v>
       </c>
@@ -3879,37 +3885,37 @@
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
-        <v>14524</v>
+        <v>6486</v>
       </c>
       <c r="F99" s="9">
-        <v>12817</v>
+        <v>3333</v>
       </c>
       <c r="G99" s="9">
-        <v>6486</v>
+        <v>15460</v>
       </c>
       <c r="H99" s="9">
-        <v>3333</v>
+        <v>27209</v>
       </c>
       <c r="I99" s="9">
-        <v>15460</v>
+        <v>15541</v>
       </c>
       <c r="J99" s="9">
-        <v>19156</v>
-      </c>
-      <c r="K99" s="9" t="s">
-        <v>31</v>
+        <v>35190</v>
+      </c>
+      <c r="K99" s="9">
+        <v>40552</v>
       </c>
       <c r="L99" s="9">
-        <v>35190</v>
+        <v>19637</v>
       </c>
       <c r="M99" s="9">
-        <v>40552</v>
+        <v>9662</v>
       </c>
       <c r="N99" s="9">
-        <v>19637</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12301</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>39</v>
       </c>
@@ -3918,37 +3924,37 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>9469</v>
+        <v>14290</v>
       </c>
       <c r="F100" s="11">
-        <v>13535</v>
+        <v>31283</v>
       </c>
       <c r="G100" s="11">
-        <v>14290</v>
+        <v>37074</v>
       </c>
       <c r="H100" s="11">
-        <v>31283</v>
+        <v>68510</v>
       </c>
       <c r="I100" s="11">
-        <v>37074</v>
+        <v>81589</v>
       </c>
       <c r="J100" s="11">
-        <v>67827</v>
-      </c>
-      <c r="K100" s="11" t="s">
-        <v>31</v>
+        <v>81103</v>
+      </c>
+      <c r="K100" s="11">
+        <v>65394</v>
       </c>
       <c r="L100" s="11">
-        <v>81103</v>
+        <v>58289</v>
       </c>
       <c r="M100" s="11">
-        <v>65394</v>
+        <v>30775</v>
       </c>
       <c r="N100" s="11">
-        <v>58289</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>114212</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>40</v>
       </c>
@@ -3987,7 +3993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>41</v>
       </c>
@@ -3996,74 +4002,74 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>2227</v>
+        <v>4299</v>
       </c>
       <c r="F102" s="11">
-        <v>3745</v>
+        <v>10384</v>
       </c>
       <c r="G102" s="11">
-        <v>4299</v>
+        <v>32074</v>
       </c>
       <c r="H102" s="11">
-        <v>10384</v>
+        <v>96705</v>
       </c>
       <c r="I102" s="11">
-        <v>32074</v>
+        <v>110603</v>
       </c>
       <c r="J102" s="11">
-        <v>96705</v>
-      </c>
-      <c r="K102" s="11" t="s">
-        <v>31</v>
+        <v>90487</v>
+      </c>
+      <c r="K102" s="11">
+        <v>205449</v>
       </c>
       <c r="L102" s="11">
-        <v>90487</v>
+        <v>160840</v>
       </c>
       <c r="M102" s="11">
-        <v>205449</v>
+        <v>282174</v>
       </c>
       <c r="N102" s="11">
-        <v>160840</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>193730</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15">
-        <v>55880</v>
+        <v>63415</v>
       </c>
       <c r="F103" s="15">
-        <v>66961</v>
+        <v>197363</v>
       </c>
       <c r="G103" s="15">
-        <v>63415</v>
+        <v>260790</v>
       </c>
       <c r="H103" s="15">
-        <v>197363</v>
+        <v>439431</v>
       </c>
       <c r="I103" s="15">
-        <v>260790</v>
+        <v>460412</v>
       </c>
       <c r="J103" s="15">
-        <v>428835</v>
+        <v>454041</v>
       </c>
       <c r="K103" s="15">
-        <v>0</v>
+        <v>566143</v>
       </c>
       <c r="L103" s="15">
-        <v>454041</v>
+        <v>439002</v>
       </c>
       <c r="M103" s="15">
-        <v>566143</v>
+        <v>627129</v>
       </c>
       <c r="N103" s="15">
-        <v>439002</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>564218</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4078,7 +4084,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4093,7 +4099,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4108,7 +4114,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>47</v>
       </c>
@@ -4145,7 +4151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4160,7 +4166,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>29</v>
       </c>
@@ -4168,38 +4174,38 @@
         <v>46</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9">
-        <v>55250</v>
+      <c r="E109" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F109" s="9">
-        <v>83340</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>31</v>
+        <v>119900</v>
+      </c>
+      <c r="G109" s="9">
+        <v>152044</v>
       </c>
       <c r="H109" s="9">
-        <v>119900</v>
+        <v>95567</v>
       </c>
       <c r="I109" s="9">
-        <v>152044</v>
+        <v>15732</v>
       </c>
       <c r="J109" s="9">
-        <v>95567</v>
+        <v>80300</v>
       </c>
       <c r="K109" s="9">
-        <v>15732</v>
+        <v>66454</v>
       </c>
       <c r="L109" s="9">
-        <v>80300</v>
+        <v>175969</v>
       </c>
       <c r="M109" s="9">
-        <v>66454</v>
+        <v>4305</v>
       </c>
       <c r="N109" s="9">
-        <v>175969</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>94609</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>32</v>
       </c>
@@ -4207,14 +4213,14 @@
         <v>46</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
-        <v>31</v>
+      <c r="E110" s="11">
+        <v>236515</v>
       </c>
       <c r="F110" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G110" s="11">
-        <v>236515</v>
+      <c r="G110" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H110" s="11" t="s">
         <v>31</v>
@@ -4238,7 +4244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>33</v>
       </c>
@@ -4277,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>34</v>
       </c>
@@ -4286,37 +4292,37 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>20327</v>
+        <v>81664</v>
       </c>
       <c r="F112" s="11">
-        <v>17223</v>
+        <v>23501</v>
       </c>
       <c r="G112" s="11">
-        <v>81664</v>
+        <v>26805</v>
       </c>
       <c r="H112" s="11">
-        <v>23501</v>
+        <v>30825</v>
       </c>
       <c r="I112" s="11">
-        <v>26805</v>
+        <v>36519</v>
       </c>
       <c r="J112" s="11">
-        <v>30825</v>
+        <v>29908</v>
       </c>
       <c r="K112" s="11">
-        <v>36519</v>
+        <v>47975</v>
       </c>
       <c r="L112" s="11">
-        <v>29908</v>
+        <v>43550</v>
       </c>
       <c r="M112" s="11">
-        <v>47975</v>
+        <v>36660</v>
       </c>
       <c r="N112" s="11">
-        <v>43550</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20077</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>36</v>
       </c>
@@ -4355,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>37</v>
       </c>
@@ -4364,37 +4370,37 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>6778</v>
+        <v>1702</v>
       </c>
       <c r="F114" s="11">
-        <v>29342</v>
+        <v>0</v>
       </c>
       <c r="G114" s="11">
-        <v>1702</v>
+        <v>0</v>
       </c>
       <c r="H114" s="11">
         <v>0</v>
       </c>
       <c r="I114" s="11">
-        <v>0</v>
+        <v>60744</v>
       </c>
       <c r="J114" s="11">
         <v>0</v>
       </c>
       <c r="K114" s="11">
-        <v>60744</v>
+        <v>0</v>
       </c>
       <c r="L114" s="11">
         <v>0</v>
       </c>
       <c r="M114" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N114" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>38</v>
       </c>
@@ -4403,37 +4409,37 @@
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>9752</v>
+        <v>11239</v>
       </c>
       <c r="F115" s="9">
-        <v>370</v>
+        <v>31028</v>
       </c>
       <c r="G115" s="9">
-        <v>11239</v>
+        <v>18606</v>
       </c>
       <c r="H115" s="9">
-        <v>31028</v>
+        <v>2212</v>
       </c>
       <c r="I115" s="9">
-        <v>18606</v>
+        <v>34753</v>
       </c>
       <c r="J115" s="9">
-        <v>2212</v>
+        <v>20125</v>
       </c>
       <c r="K115" s="9">
-        <v>34753</v>
+        <v>0</v>
       </c>
       <c r="L115" s="9">
-        <v>20125</v>
+        <v>8600</v>
       </c>
       <c r="M115" s="9">
-        <v>0</v>
+        <v>16676</v>
       </c>
       <c r="N115" s="9">
-        <v>8600</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27383</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>39</v>
       </c>
@@ -4442,37 +4448,37 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>55151</v>
+        <v>72787</v>
       </c>
       <c r="F116" s="11">
-        <v>26887</v>
+        <v>50654</v>
       </c>
       <c r="G116" s="11">
-        <v>72787</v>
+        <v>83705</v>
       </c>
       <c r="H116" s="11">
-        <v>50654</v>
+        <v>85065</v>
       </c>
       <c r="I116" s="11">
-        <v>83705</v>
+        <v>98362</v>
       </c>
       <c r="J116" s="11">
-        <v>85065</v>
+        <v>77180</v>
       </c>
       <c r="K116" s="11">
-        <v>98362</v>
+        <v>106494</v>
       </c>
       <c r="L116" s="11">
-        <v>77180</v>
+        <v>82113</v>
       </c>
       <c r="M116" s="11">
-        <v>106494</v>
+        <v>196360</v>
       </c>
       <c r="N116" s="11">
-        <v>82113</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>58728</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>40</v>
       </c>
@@ -4492,14 +4498,14 @@
       <c r="H117" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I117" s="9" t="s">
-        <v>31</v>
+      <c r="I117" s="9">
+        <v>194</v>
       </c>
       <c r="J117" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K117" s="9">
-        <v>194</v>
+      <c r="K117" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L117" s="9" t="s">
         <v>31</v>
@@ -4511,7 +4517,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>41</v>
       </c>
@@ -4520,74 +4526,74 @@
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>20182</v>
+        <v>55318</v>
       </c>
       <c r="F118" s="11">
-        <v>17165</v>
+        <v>50119</v>
       </c>
       <c r="G118" s="11">
-        <v>55318</v>
+        <v>92173</v>
       </c>
       <c r="H118" s="11">
-        <v>50119</v>
+        <v>66674</v>
       </c>
       <c r="I118" s="11">
-        <v>92173</v>
+        <v>47232</v>
       </c>
       <c r="J118" s="11">
-        <v>66674</v>
+        <v>184610</v>
       </c>
       <c r="K118" s="11">
-        <v>47232</v>
+        <v>27595</v>
       </c>
       <c r="L118" s="11">
-        <v>184610</v>
+        <v>178886</v>
       </c>
       <c r="M118" s="11">
-        <v>27595</v>
+        <v>-1567</v>
       </c>
       <c r="N118" s="11">
-        <v>178886</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>167440</v>
+        <v>459225</v>
       </c>
       <c r="F119" s="15">
-        <v>174327</v>
+        <v>275202</v>
       </c>
       <c r="G119" s="15">
-        <v>459225</v>
+        <v>373333</v>
       </c>
       <c r="H119" s="15">
-        <v>275202</v>
+        <v>280343</v>
       </c>
       <c r="I119" s="15">
-        <v>373333</v>
+        <v>293536</v>
       </c>
       <c r="J119" s="15">
-        <v>280343</v>
+        <v>392123</v>
       </c>
       <c r="K119" s="15">
-        <v>293536</v>
+        <v>248518</v>
       </c>
       <c r="L119" s="15">
-        <v>392123</v>
+        <v>489118</v>
       </c>
       <c r="M119" s="15">
-        <v>248518</v>
+        <v>252435</v>
       </c>
       <c r="N119" s="15">
-        <v>489118</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>200797</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4602,7 +4608,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4617,7 +4623,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4632,7 +4638,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>48</v>
       </c>
@@ -4669,7 +4675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4684,7 +4690,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>29</v>
       </c>
@@ -4692,38 +4698,38 @@
         <v>46</v>
       </c>
       <c r="D125" s="9"/>
-      <c r="E125" s="9">
-        <v>55030</v>
+      <c r="E125" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F125" s="9">
-        <v>68328</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>31</v>
+        <v>89663</v>
+      </c>
+      <c r="G125" s="9">
+        <v>87329</v>
       </c>
       <c r="H125" s="9">
-        <v>89663</v>
+        <v>95426</v>
       </c>
       <c r="I125" s="9">
-        <v>87329</v>
+        <v>79667</v>
       </c>
       <c r="J125" s="9">
-        <v>95426</v>
+        <v>61134</v>
       </c>
       <c r="K125" s="9">
-        <v>79667</v>
+        <v>123705</v>
       </c>
       <c r="L125" s="9">
-        <v>61134</v>
+        <v>62734</v>
       </c>
       <c r="M125" s="9">
-        <v>123705</v>
+        <v>54022</v>
       </c>
       <c r="N125" s="9">
-        <v>62734</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>83600</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>32</v>
       </c>
@@ -4731,14 +4737,14 @@
         <v>46</v>
       </c>
       <c r="D126" s="11"/>
-      <c r="E126" s="11" t="s">
-        <v>31</v>
+      <c r="E126" s="11">
+        <v>203213</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G126" s="11">
-        <v>203213</v>
+      <c r="G126" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H126" s="11" t="s">
         <v>31</v>
@@ -4762,7 +4768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>33</v>
       </c>
@@ -4771,7 +4777,7 @@
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F127" s="9">
         <v>0</v>
@@ -4795,13 +4801,13 @@
         <v>0</v>
       </c>
       <c r="M127" s="9">
-        <v>0</v>
+        <v>22201</v>
       </c>
       <c r="N127" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>34</v>
       </c>
@@ -4810,37 +4816,37 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>14451</v>
+        <v>24028</v>
       </c>
       <c r="F128" s="11">
-        <v>22999</v>
+        <v>24035</v>
       </c>
       <c r="G128" s="11">
-        <v>24028</v>
+        <v>16250</v>
       </c>
       <c r="H128" s="11">
-        <v>24035</v>
+        <v>22789</v>
       </c>
       <c r="I128" s="11">
-        <v>16250</v>
+        <v>27464</v>
       </c>
       <c r="J128" s="11">
-        <v>22789</v>
+        <v>32523</v>
       </c>
       <c r="K128" s="11">
-        <v>27464</v>
+        <v>35642</v>
       </c>
       <c r="L128" s="11">
-        <v>32523</v>
+        <v>44493</v>
       </c>
       <c r="M128" s="11">
-        <v>35642</v>
+        <v>19150</v>
       </c>
       <c r="N128" s="11">
-        <v>44493</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40253</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>36</v>
       </c>
@@ -4849,13 +4855,13 @@
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" s="9">
         <v>0</v>
       </c>
       <c r="G129" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129" s="9">
         <v>0</v>
@@ -4873,13 +4879,13 @@
         <v>0</v>
       </c>
       <c r="M129" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N129" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>37</v>
       </c>
@@ -4888,37 +4894,37 @@
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>2794</v>
+        <v>2782</v>
       </c>
       <c r="F130" s="11">
-        <v>8879</v>
+        <v>5884</v>
       </c>
       <c r="G130" s="11">
-        <v>2782</v>
+        <v>4443</v>
       </c>
       <c r="H130" s="11">
-        <v>5884</v>
+        <v>5049</v>
       </c>
       <c r="I130" s="11">
-        <v>4443</v>
+        <v>8737</v>
       </c>
       <c r="J130" s="11">
-        <v>5049</v>
+        <v>9064</v>
       </c>
       <c r="K130" s="11">
-        <v>8737</v>
+        <v>9595</v>
       </c>
       <c r="L130" s="11">
-        <v>9064</v>
+        <v>8010</v>
       </c>
       <c r="M130" s="11">
-        <v>9595</v>
+        <v>7124</v>
       </c>
       <c r="N130" s="11">
-        <v>8010</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9502</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>38</v>
       </c>
@@ -4927,37 +4933,37 @@
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
-        <v>10143</v>
+        <v>14391</v>
       </c>
       <c r="F131" s="9">
-        <v>8017</v>
+        <v>18901</v>
       </c>
       <c r="G131" s="9">
-        <v>14391</v>
+        <v>6857</v>
       </c>
       <c r="H131" s="9">
-        <v>18901</v>
+        <v>13880</v>
       </c>
       <c r="I131" s="9">
-        <v>6857</v>
+        <v>15104</v>
       </c>
       <c r="J131" s="9">
-        <v>13880</v>
+        <v>14763</v>
       </c>
       <c r="K131" s="9">
-        <v>15104</v>
+        <v>20915</v>
       </c>
       <c r="L131" s="9">
-        <v>14763</v>
+        <v>18575</v>
       </c>
       <c r="M131" s="9">
-        <v>20915</v>
+        <v>13789</v>
       </c>
       <c r="N131" s="9">
-        <v>18575</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30436</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>39</v>
       </c>
@@ -4966,37 +4972,37 @@
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
-        <v>42489</v>
+        <v>55794</v>
       </c>
       <c r="F132" s="11">
-        <v>34728</v>
+        <v>44863</v>
       </c>
       <c r="G132" s="11">
-        <v>55794</v>
+        <v>52269</v>
       </c>
       <c r="H132" s="11">
-        <v>44863</v>
+        <v>71986</v>
       </c>
       <c r="I132" s="11">
-        <v>52269</v>
+        <v>98848</v>
       </c>
       <c r="J132" s="11">
-        <v>71986</v>
+        <v>92889</v>
       </c>
       <c r="K132" s="11">
-        <v>98848</v>
+        <v>113599</v>
       </c>
       <c r="L132" s="11">
-        <v>92889</v>
+        <v>109627</v>
       </c>
       <c r="M132" s="11">
-        <v>113599</v>
+        <v>112772</v>
       </c>
       <c r="N132" s="11">
-        <v>109627</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>132987</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>40</v>
       </c>
@@ -5016,14 +5022,14 @@
       <c r="H133" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I133" s="9" t="s">
-        <v>31</v>
+      <c r="I133" s="9">
+        <v>194</v>
       </c>
       <c r="J133" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K133" s="9">
-        <v>194</v>
+      <c r="K133" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L133" s="9" t="s">
         <v>31</v>
@@ -5035,7 +5041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>41</v>
       </c>
@@ -5044,74 +5050,74 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>18423</v>
+        <v>49233</v>
       </c>
       <c r="F134" s="11">
-        <v>16852</v>
+        <v>28429</v>
       </c>
       <c r="G134" s="11">
-        <v>49233</v>
+        <v>27542</v>
       </c>
       <c r="H134" s="11">
-        <v>28429</v>
+        <v>52776</v>
       </c>
       <c r="I134" s="11">
-        <v>27542</v>
+        <v>67348</v>
       </c>
       <c r="J134" s="11">
-        <v>52776</v>
+        <v>69648</v>
       </c>
       <c r="K134" s="11">
-        <v>67348</v>
+        <v>72204</v>
       </c>
       <c r="L134" s="11">
-        <v>69648</v>
+        <v>57552</v>
       </c>
       <c r="M134" s="11">
-        <v>72204</v>
+        <v>86273</v>
       </c>
       <c r="N134" s="11">
-        <v>57552</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>80085</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
-        <v>143360</v>
+        <v>349442</v>
       </c>
       <c r="F135" s="15">
-        <v>159803</v>
+        <v>211775</v>
       </c>
       <c r="G135" s="15">
-        <v>349442</v>
+        <v>194690</v>
       </c>
       <c r="H135" s="15">
-        <v>211775</v>
+        <v>261906</v>
       </c>
       <c r="I135" s="15">
-        <v>194690</v>
+        <v>297362</v>
       </c>
       <c r="J135" s="15">
-        <v>261906</v>
+        <v>280021</v>
       </c>
       <c r="K135" s="15">
-        <v>297362</v>
+        <v>375660</v>
       </c>
       <c r="L135" s="15">
-        <v>280021</v>
+        <v>300991</v>
       </c>
       <c r="M135" s="15">
-        <v>375660</v>
+        <v>315346</v>
       </c>
       <c r="N135" s="15">
-        <v>300991</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>376863</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -5126,7 +5132,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -5141,7 +5147,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -5156,7 +5162,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>49</v>
       </c>
@@ -5193,7 +5199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5208,7 +5214,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>29</v>
       </c>
@@ -5216,38 +5222,38 @@
         <v>46</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9">
-        <v>16057</v>
+      <c r="E141" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F141" s="9">
-        <v>31069</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>31</v>
+        <v>87704</v>
+      </c>
+      <c r="G141" s="9">
+        <v>154963</v>
       </c>
       <c r="H141" s="9">
-        <v>87704</v>
+        <v>155104</v>
       </c>
       <c r="I141" s="9">
-        <v>154963</v>
+        <v>88623</v>
       </c>
       <c r="J141" s="9">
-        <v>155104</v>
+        <v>107789</v>
       </c>
       <c r="K141" s="9">
-        <v>88623</v>
+        <v>50542</v>
       </c>
       <c r="L141" s="9">
-        <v>107789</v>
+        <v>163777</v>
       </c>
       <c r="M141" s="9">
-        <v>50542</v>
+        <v>79462</v>
       </c>
       <c r="N141" s="9">
-        <v>163777</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>90471</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>32</v>
       </c>
@@ -5255,14 +5261,14 @@
         <v>46</v>
       </c>
       <c r="D142" s="11"/>
-      <c r="E142" s="11" t="s">
-        <v>31</v>
+      <c r="E142" s="11">
+        <v>57484</v>
       </c>
       <c r="F142" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G142" s="11">
-        <v>57484</v>
+      <c r="G142" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H142" s="11" t="s">
         <v>31</v>
@@ -5286,7 +5292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>33</v>
       </c>
@@ -5319,13 +5325,13 @@
         <v>57</v>
       </c>
       <c r="M143" s="9">
-        <v>57</v>
+        <v>12453</v>
       </c>
       <c r="N143" s="9">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12453</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>34</v>
       </c>
@@ -5334,37 +5340,37 @@
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
-        <v>15662</v>
+        <v>67521</v>
       </c>
       <c r="F144" s="11">
-        <v>9886</v>
+        <v>66987</v>
       </c>
       <c r="G144" s="11">
-        <v>67521</v>
+        <v>77542</v>
       </c>
       <c r="H144" s="11">
-        <v>66987</v>
+        <v>85578</v>
       </c>
       <c r="I144" s="11">
-        <v>77542</v>
+        <v>94633</v>
       </c>
       <c r="J144" s="11">
-        <v>85578</v>
+        <v>92018</v>
       </c>
       <c r="K144" s="11">
-        <v>94633</v>
+        <v>104351</v>
       </c>
       <c r="L144" s="11">
-        <v>92018</v>
+        <v>103408</v>
       </c>
       <c r="M144" s="11">
-        <v>104351</v>
+        <v>121922</v>
       </c>
       <c r="N144" s="11">
-        <v>103408</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>101746</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>36</v>
       </c>
@@ -5373,37 +5379,37 @@
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>2562</v>
+        <v>2544</v>
       </c>
       <c r="F145" s="9">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="G145" s="9">
-        <v>2544</v>
+        <v>17</v>
       </c>
       <c r="H145" s="9">
         <v>2561</v>
       </c>
       <c r="I145" s="9">
-        <v>17</v>
+        <v>2562</v>
       </c>
       <c r="J145" s="9">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="K145" s="9">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="L145" s="9">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="M145" s="9">
-        <v>2559</v>
+        <v>2544</v>
       </c>
       <c r="N145" s="9">
-        <v>2559</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>37</v>
       </c>
@@ -5412,37 +5418,37 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
-        <v>5372</v>
+        <v>24755</v>
       </c>
       <c r="F146" s="11">
-        <v>25835</v>
+        <v>18873</v>
       </c>
       <c r="G146" s="11">
-        <v>24755</v>
+        <v>14428</v>
       </c>
       <c r="H146" s="11">
-        <v>18873</v>
+        <v>9379</v>
       </c>
       <c r="I146" s="11">
-        <v>14428</v>
+        <v>61386</v>
       </c>
       <c r="J146" s="11">
-        <v>9379</v>
+        <v>52322</v>
       </c>
       <c r="K146" s="11">
-        <v>61386</v>
+        <v>42727</v>
       </c>
       <c r="L146" s="11">
-        <v>52322</v>
+        <v>34717</v>
       </c>
       <c r="M146" s="11">
-        <v>42727</v>
+        <v>27594</v>
       </c>
       <c r="N146" s="11">
-        <v>34717</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18092</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>38</v>
       </c>
@@ -5451,37 +5457,37 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
-        <v>14133</v>
+        <v>3333</v>
       </c>
       <c r="F147" s="9">
-        <v>6486</v>
+        <v>15460</v>
       </c>
       <c r="G147" s="9">
-        <v>3333</v>
+        <v>27209</v>
       </c>
       <c r="H147" s="9">
-        <v>15460</v>
+        <v>15541</v>
       </c>
       <c r="I147" s="9">
-        <v>27209</v>
+        <v>35190</v>
       </c>
       <c r="J147" s="9">
-        <v>15541</v>
+        <v>40552</v>
       </c>
       <c r="K147" s="9">
-        <v>35190</v>
+        <v>19637</v>
       </c>
       <c r="L147" s="9">
-        <v>40552</v>
+        <v>9662</v>
       </c>
       <c r="M147" s="9">
-        <v>19637</v>
+        <v>12301</v>
       </c>
       <c r="N147" s="9">
-        <v>9662</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9248</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>39</v>
       </c>
@@ -5490,37 +5496,37 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
-        <v>22131</v>
+        <v>31283</v>
       </c>
       <c r="F148" s="11">
-        <v>14290</v>
+        <v>37074</v>
       </c>
       <c r="G148" s="11">
-        <v>31283</v>
+        <v>68510</v>
       </c>
       <c r="H148" s="11">
-        <v>37074</v>
+        <v>81589</v>
       </c>
       <c r="I148" s="11">
-        <v>68510</v>
+        <v>81103</v>
       </c>
       <c r="J148" s="11">
-        <v>81589</v>
+        <v>65394</v>
       </c>
       <c r="K148" s="11">
-        <v>81103</v>
+        <v>58289</v>
       </c>
       <c r="L148" s="11">
-        <v>65394</v>
+        <v>30775</v>
       </c>
       <c r="M148" s="11">
-        <v>58289</v>
+        <v>114212</v>
       </c>
       <c r="N148" s="11">
-        <v>30775</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39953</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>40</v>
       </c>
@@ -5540,14 +5546,14 @@
       <c r="H149" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I149" s="9" t="s">
-        <v>31</v>
+      <c r="I149" s="9">
+        <v>0</v>
       </c>
       <c r="J149" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K149" s="9">
-        <v>0</v>
+      <c r="K149" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L149" s="9" t="s">
         <v>31</v>
@@ -5559,7 +5565,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>41</v>
       </c>
@@ -5568,74 +5574,74 @@
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
-        <v>3986</v>
+        <v>10384</v>
       </c>
       <c r="F150" s="11">
-        <v>4299</v>
+        <v>32074</v>
       </c>
       <c r="G150" s="11">
-        <v>10384</v>
+        <v>96705</v>
       </c>
       <c r="H150" s="11">
-        <v>32074</v>
+        <v>110603</v>
       </c>
       <c r="I150" s="11">
-        <v>96705</v>
+        <v>90487</v>
       </c>
       <c r="J150" s="11">
-        <v>110603</v>
+        <v>205449</v>
       </c>
       <c r="K150" s="11">
-        <v>90487</v>
+        <v>160840</v>
       </c>
       <c r="L150" s="11">
-        <v>205449</v>
+        <v>282174</v>
       </c>
       <c r="M150" s="11">
-        <v>160840</v>
+        <v>193730</v>
       </c>
       <c r="N150" s="11">
-        <v>282174</v>
-      </c>
-    </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+        <v>113645</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
       <c r="E151" s="15">
-        <v>79960</v>
+        <v>197361</v>
       </c>
       <c r="F151" s="15">
-        <v>94484</v>
+        <v>260790</v>
       </c>
       <c r="G151" s="15">
-        <v>197361</v>
+        <v>439431</v>
       </c>
       <c r="H151" s="15">
-        <v>260790</v>
+        <v>460412</v>
       </c>
       <c r="I151" s="15">
-        <v>439431</v>
+        <v>454041</v>
       </c>
       <c r="J151" s="15">
-        <v>460412</v>
+        <v>566143</v>
       </c>
       <c r="K151" s="15">
-        <v>454041</v>
+        <v>439002</v>
       </c>
       <c r="L151" s="15">
-        <v>566143</v>
+        <v>627129</v>
       </c>
       <c r="M151" s="15">
-        <v>439002</v>
+        <v>564218</v>
       </c>
       <c r="N151" s="15">
-        <v>627129</v>
-      </c>
-    </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+        <v>388152</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5650,7 +5656,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5665,7 +5671,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5680,7 +5686,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>50</v>
       </c>
@@ -5717,7 +5723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5732,7 +5738,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>29</v>
       </c>
@@ -5740,38 +5746,38 @@
         <v>51</v>
       </c>
       <c r="D157" s="9"/>
-      <c r="E157" s="9">
-        <v>13424</v>
+      <c r="E157" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F157" s="9">
-        <v>12352</v>
-      </c>
-      <c r="G157" s="9" t="s">
-        <v>31</v>
+        <v>24875</v>
+      </c>
+      <c r="G157" s="9">
+        <v>28133</v>
       </c>
       <c r="H157" s="9">
-        <v>24875</v>
+        <v>31370</v>
       </c>
       <c r="I157" s="9">
-        <v>28133</v>
+        <v>32417</v>
       </c>
       <c r="J157" s="9">
-        <v>31370</v>
-      </c>
-      <c r="K157" s="9" t="s">
-        <v>31</v>
+        <v>30204</v>
+      </c>
+      <c r="K157" s="9">
+        <v>30748</v>
       </c>
       <c r="L157" s="9">
-        <v>30204</v>
+        <v>25201</v>
       </c>
       <c r="M157" s="9">
-        <v>30748</v>
+        <v>31760</v>
       </c>
       <c r="N157" s="9">
-        <v>25201</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31996</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>32</v>
       </c>
@@ -5810,7 +5816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>33</v>
       </c>
@@ -5819,7 +5825,7 @@
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="F159" s="9">
         <v>1188</v>
@@ -5846,10 +5852,10 @@
         <v>1188</v>
       </c>
       <c r="N159" s="9">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+        <v>277535</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>34</v>
       </c>
@@ -5858,37 +5864,37 @@
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
-        <v>52424</v>
+        <v>63119</v>
       </c>
       <c r="F160" s="11">
-        <v>143919</v>
+        <v>100261</v>
       </c>
       <c r="G160" s="11">
-        <v>63119</v>
+        <v>100876</v>
       </c>
       <c r="H160" s="11">
-        <v>100261</v>
+        <v>101024</v>
       </c>
       <c r="I160" s="11">
-        <v>100876</v>
+        <v>101183</v>
       </c>
       <c r="J160" s="11">
-        <v>101024</v>
+        <v>101834</v>
       </c>
       <c r="K160" s="11">
-        <v>101183</v>
+        <v>105949</v>
       </c>
       <c r="L160" s="11">
-        <v>101834</v>
+        <v>129420</v>
       </c>
       <c r="M160" s="11">
-        <v>105949</v>
+        <v>129043</v>
       </c>
       <c r="N160" s="11">
-        <v>129420</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+        <v>146279</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>36</v>
       </c>
@@ -5900,34 +5906,34 @@
         <v>309234</v>
       </c>
       <c r="F161" s="9">
-        <v>309234</v>
+        <v>309225</v>
       </c>
       <c r="G161" s="9">
-        <v>309234</v>
+        <v>309225</v>
       </c>
       <c r="H161" s="9">
-        <v>309225</v>
+        <v>77273</v>
       </c>
       <c r="I161" s="9">
         <v>309225</v>
       </c>
       <c r="J161" s="9">
-        <v>77273</v>
+        <v>309346</v>
       </c>
       <c r="K161" s="9">
-        <v>309225</v>
+        <v>309346</v>
       </c>
       <c r="L161" s="9">
-        <v>309346</v>
+        <v>308760</v>
       </c>
       <c r="M161" s="9">
-        <v>309346</v>
+        <v>308760</v>
       </c>
       <c r="N161" s="9">
-        <v>308760</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+        <v>309301</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>37</v>
       </c>
@@ -5936,37 +5942,37 @@
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>360426</v>
+        <v>672226</v>
       </c>
       <c r="F162" s="11">
-        <v>291952</v>
+        <v>783102</v>
       </c>
       <c r="G162" s="11">
-        <v>672226</v>
+        <v>783112</v>
       </c>
       <c r="H162" s="11">
-        <v>783102</v>
+        <v>783024</v>
       </c>
       <c r="I162" s="11">
-        <v>783112</v>
+        <v>783084</v>
       </c>
       <c r="J162" s="11">
-        <v>783024</v>
+        <v>1346982</v>
       </c>
       <c r="K162" s="11">
-        <v>783084</v>
+        <v>1346978</v>
       </c>
       <c r="L162" s="11">
-        <v>1346982</v>
+        <v>1346963</v>
       </c>
       <c r="M162" s="11">
         <v>1346978</v>
       </c>
       <c r="N162" s="11">
-        <v>1346963</v>
-      </c>
-    </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1346969</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>38</v>
       </c>
@@ -5975,37 +5981,37 @@
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
-        <v>505060</v>
+        <v>442610</v>
       </c>
       <c r="F163" s="9">
-        <v>496860</v>
+        <v>656490</v>
       </c>
       <c r="G163" s="9">
-        <v>442610</v>
+        <v>886061</v>
       </c>
       <c r="H163" s="9">
-        <v>656490</v>
+        <v>886864</v>
       </c>
       <c r="I163" s="9">
-        <v>886061</v>
+        <v>888667</v>
       </c>
       <c r="J163" s="9">
-        <v>886864</v>
+        <v>1030213</v>
       </c>
       <c r="K163" s="9">
-        <v>888667</v>
+        <v>1049482</v>
       </c>
       <c r="L163" s="9">
-        <v>1030213</v>
+        <v>1046581</v>
       </c>
       <c r="M163" s="9">
-        <v>1049482</v>
+        <v>1042175</v>
       </c>
       <c r="N163" s="9">
-        <v>1046581</v>
-      </c>
-    </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1241898</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>39</v>
       </c>
@@ -6014,37 +6020,37 @@
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
-        <v>81920</v>
+        <v>84013</v>
       </c>
       <c r="F164" s="11">
-        <v>91008</v>
+        <v>94737</v>
       </c>
       <c r="G164" s="11">
-        <v>84013</v>
+        <v>94739</v>
       </c>
       <c r="H164" s="11">
-        <v>94737</v>
+        <v>144305</v>
       </c>
       <c r="I164" s="11">
-        <v>94739</v>
+        <v>165358</v>
       </c>
       <c r="J164" s="11">
-        <v>144305</v>
+        <v>169006</v>
       </c>
       <c r="K164" s="11">
-        <v>165358</v>
+        <v>169725</v>
       </c>
       <c r="L164" s="11">
-        <v>169006</v>
+        <v>208377</v>
       </c>
       <c r="M164" s="11">
-        <v>169725</v>
+        <v>179384</v>
       </c>
       <c r="N164" s="11">
-        <v>208377</v>
-      </c>
-    </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+        <v>235121</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>40</v>
       </c>
@@ -6083,7 +6089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>41</v>
       </c>
@@ -6092,37 +6098,37 @@
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
-        <v>781404</v>
+        <v>874669</v>
       </c>
       <c r="F166" s="11">
-        <v>973992</v>
+        <v>1524369</v>
       </c>
       <c r="G166" s="11">
-        <v>874669</v>
+        <v>1632846</v>
       </c>
       <c r="H166" s="11">
-        <v>1524369</v>
+        <v>2899092</v>
       </c>
       <c r="I166" s="11">
-        <v>1632846</v>
+        <v>3134739</v>
       </c>
       <c r="J166" s="11">
-        <v>2899092</v>
+        <v>3592750</v>
       </c>
       <c r="K166" s="11">
-        <v>3134739</v>
+        <v>4261808</v>
       </c>
       <c r="L166" s="11">
-        <v>3592750</v>
+        <v>4157791</v>
       </c>
       <c r="M166" s="11">
-        <v>4261808</v>
+        <v>4420573</v>
       </c>
       <c r="N166" s="11">
-        <v>4157791</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4224102</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -6137,7 +6143,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -6152,7 +6158,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -6167,7 +6173,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B170" s="7" t="s">
         <v>53</v>
       </c>
@@ -6204,7 +6210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -6219,7 +6225,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>29</v>
       </c>
@@ -6227,38 +6233,38 @@
         <v>51</v>
       </c>
       <c r="D172" s="9"/>
-      <c r="E172" s="9">
-        <v>15203</v>
+      <c r="E172" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F172" s="9">
-        <v>17603</v>
-      </c>
-      <c r="G172" s="9" t="s">
-        <v>31</v>
+        <v>31958</v>
+      </c>
+      <c r="G172" s="9">
+        <v>34023</v>
       </c>
       <c r="H172" s="9">
-        <v>31958</v>
+        <v>35559</v>
       </c>
       <c r="I172" s="9">
-        <v>34023</v>
+        <v>31401</v>
       </c>
       <c r="J172" s="9">
-        <v>35559</v>
+        <v>32059</v>
       </c>
       <c r="K172" s="9">
-        <v>33591</v>
+        <v>37229</v>
       </c>
       <c r="L172" s="9">
-        <v>32059</v>
+        <v>32930</v>
       </c>
       <c r="M172" s="9">
-        <v>37229</v>
+        <v>479</v>
       </c>
       <c r="N172" s="9">
-        <v>32930</v>
-      </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38307</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>32</v>
       </c>
@@ -6266,14 +6272,14 @@
         <v>51</v>
       </c>
       <c r="D173" s="11"/>
-      <c r="E173" s="11" t="s">
-        <v>31</v>
+      <c r="E173" s="11">
+        <v>20812</v>
       </c>
       <c r="F173" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G173" s="11">
-        <v>20812</v>
+      <c r="G173" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H173" s="11" t="s">
         <v>31</v>
@@ -6297,7 +6303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="8" t="s">
         <v>33</v>
       </c>
@@ -6336,7 +6342,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="10" t="s">
         <v>34</v>
       </c>
@@ -6345,37 +6351,37 @@
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="11">
-        <v>97935</v>
+        <v>108553</v>
       </c>
       <c r="F175" s="11">
-        <v>38799</v>
+        <v>106504</v>
       </c>
       <c r="G175" s="11">
-        <v>108553</v>
+        <v>101241</v>
       </c>
       <c r="H175" s="11">
-        <v>106504</v>
+        <v>104638</v>
       </c>
       <c r="I175" s="11">
-        <v>101241</v>
+        <v>135223</v>
       </c>
       <c r="J175" s="11">
-        <v>104638</v>
+        <v>159207</v>
       </c>
       <c r="K175" s="11">
-        <v>135223</v>
+        <v>182445</v>
       </c>
       <c r="L175" s="11">
-        <v>159207</v>
+        <v>210571</v>
       </c>
       <c r="M175" s="11">
-        <v>182445</v>
+        <v>156102</v>
       </c>
       <c r="N175" s="11">
-        <v>210571</v>
-      </c>
-    </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+        <v>158956</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="8" t="s">
         <v>36</v>
       </c>
@@ -6414,7 +6420,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="10" t="s">
         <v>37</v>
       </c>
@@ -6423,37 +6429,37 @@
       </c>
       <c r="D177" s="11"/>
       <c r="E177" s="11">
-        <v>543719</v>
-      </c>
-      <c r="F177" s="11">
-        <v>877654</v>
-      </c>
-      <c r="G177" s="11">
         <v>1595127</v>
       </c>
+      <c r="F177" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G177" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H177" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I177" s="11" t="s">
-        <v>31</v>
+      <c r="I177" s="11">
+        <v>1556062</v>
       </c>
       <c r="J177" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K177" s="11">
-        <v>1556062</v>
+      <c r="K177" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="L177" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M177" s="11" t="s">
-        <v>31</v>
+      <c r="M177" s="11">
+        <v>1000000</v>
       </c>
       <c r="N177" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="8" t="s">
         <v>38</v>
       </c>
@@ -6462,37 +6468,37 @@
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9">
-        <v>545750</v>
+        <v>1171583</v>
       </c>
       <c r="F178" s="9">
-        <v>156183</v>
+        <v>870302</v>
       </c>
       <c r="G178" s="9">
-        <v>1171583</v>
+        <v>938181</v>
       </c>
       <c r="H178" s="9">
-        <v>870302</v>
+        <v>899553</v>
       </c>
       <c r="I178" s="9">
-        <v>938181</v>
+        <v>951616</v>
       </c>
       <c r="J178" s="9">
-        <v>899553</v>
-      </c>
-      <c r="K178" s="9">
-        <v>951616</v>
+        <v>1079957</v>
+      </c>
+      <c r="K178" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L178" s="9">
-        <v>1079957</v>
-      </c>
-      <c r="M178" s="9" t="s">
-        <v>31</v>
+        <v>1172781</v>
+      </c>
+      <c r="M178" s="9">
+        <v>1282276</v>
       </c>
       <c r="N178" s="9">
-        <v>1172781</v>
-      </c>
-    </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1241859</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>39</v>
       </c>
@@ -6501,37 +6507,37 @@
       </c>
       <c r="D179" s="11"/>
       <c r="E179" s="11">
-        <v>119267</v>
+        <v>112755</v>
       </c>
       <c r="F179" s="11">
-        <v>40971</v>
+        <v>94747</v>
       </c>
       <c r="G179" s="11">
-        <v>112755</v>
+        <v>187257</v>
       </c>
       <c r="H179" s="11">
-        <v>94747</v>
+        <v>176989</v>
       </c>
       <c r="I179" s="11">
-        <v>187257</v>
+        <v>207107</v>
       </c>
       <c r="J179" s="11">
-        <v>176989</v>
+        <v>170974</v>
       </c>
       <c r="K179" s="11">
-        <v>207107</v>
+        <v>233488</v>
       </c>
       <c r="L179" s="11">
-        <v>170974</v>
+        <v>233940</v>
       </c>
       <c r="M179" s="11">
-        <v>233488</v>
+        <v>268076</v>
       </c>
       <c r="N179" s="11">
-        <v>233940</v>
-      </c>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+        <v>245384</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
         <v>40</v>
       </c>
@@ -6551,14 +6557,14 @@
       <c r="H180" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I180" s="9" t="s">
-        <v>31</v>
+      <c r="I180" s="9">
+        <v>106946</v>
       </c>
       <c r="J180" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K180" s="9">
-        <v>106946</v>
+      <c r="K180" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L180" s="9" t="s">
         <v>31</v>
@@ -6570,7 +6576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>41</v>
       </c>
@@ -6579,37 +6585,37 @@
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="11">
-        <v>1039559</v>
+        <v>2228049</v>
       </c>
       <c r="F181" s="11">
-        <v>829213</v>
+        <v>1650008</v>
       </c>
       <c r="G181" s="11">
-        <v>2228049</v>
+        <v>3335010</v>
       </c>
       <c r="H181" s="11">
-        <v>1650008</v>
+        <v>3449964</v>
       </c>
       <c r="I181" s="11">
-        <v>3335010</v>
+        <v>4070671</v>
       </c>
       <c r="J181" s="11">
-        <v>3449964</v>
+        <v>4540893</v>
       </c>
       <c r="K181" s="11">
-        <v>4070671</v>
+        <v>3928114</v>
       </c>
       <c r="L181" s="11">
-        <v>4540893</v>
+        <v>4539908</v>
       </c>
       <c r="M181" s="11">
-        <v>3928114</v>
-      </c>
-      <c r="N181" s="11">
-        <v>4539908</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26301</v>
+      </c>
+      <c r="N181" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -6624,7 +6630,7 @@
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -6639,7 +6645,7 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -6654,7 +6660,7 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B185" s="7" t="s">
         <v>54</v>
       </c>
@@ -6691,7 +6697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -6706,7 +6712,7 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>29</v>
       </c>
@@ -6714,38 +6720,38 @@
         <v>51</v>
       </c>
       <c r="D187" s="9"/>
-      <c r="E187" s="9">
-        <v>15661</v>
+      <c r="E187" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F187" s="9">
-        <v>17104</v>
-      </c>
-      <c r="G187" s="9" t="s">
-        <v>31</v>
+        <v>30451</v>
+      </c>
+      <c r="G187" s="9">
+        <v>32897</v>
       </c>
       <c r="H187" s="9">
-        <v>30451</v>
+        <v>33569</v>
       </c>
       <c r="I187" s="9">
-        <v>32897</v>
+        <v>33995</v>
       </c>
       <c r="J187" s="9">
-        <v>33569</v>
+        <v>31621</v>
       </c>
       <c r="K187" s="9">
-        <v>32645</v>
+        <v>37658</v>
       </c>
       <c r="L187" s="9">
-        <v>31621</v>
+        <v>28611</v>
       </c>
       <c r="M187" s="9">
-        <v>37658</v>
+        <v>7323</v>
       </c>
       <c r="N187" s="9">
-        <v>28611</v>
-      </c>
-    </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33850</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>32</v>
       </c>
@@ -6753,14 +6759,14 @@
         <v>51</v>
       </c>
       <c r="D188" s="11"/>
-      <c r="E188" s="11" t="s">
-        <v>31</v>
+      <c r="E188" s="11">
+        <v>20258</v>
       </c>
       <c r="F188" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G188" s="11">
-        <v>20258</v>
+      <c r="G188" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H188" s="11" t="s">
         <v>31</v>
@@ -6784,7 +6790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>33</v>
       </c>
@@ -6792,8 +6798,8 @@
         <v>51</v>
       </c>
       <c r="D189" s="9"/>
-      <c r="E189" s="9">
-        <v>1200</v>
+      <c r="E189" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F189" s="9" t="s">
         <v>31</v>
@@ -6816,14 +6822,14 @@
       <c r="L189" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M189" s="9" t="s">
-        <v>31</v>
+      <c r="M189" s="9">
+        <v>339933</v>
       </c>
       <c r="N189" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>34</v>
       </c>
@@ -6832,37 +6838,37 @@
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="11">
-        <v>50669</v>
+        <v>102797</v>
       </c>
       <c r="F190" s="11">
-        <v>66809</v>
+        <v>104475</v>
       </c>
       <c r="G190" s="11">
-        <v>102797</v>
+        <v>100771</v>
       </c>
       <c r="H190" s="11">
-        <v>104475</v>
+        <v>105322</v>
       </c>
       <c r="I190" s="11">
-        <v>100771</v>
+        <v>105809</v>
       </c>
       <c r="J190" s="11">
-        <v>105322</v>
+        <v>130809</v>
       </c>
       <c r="K190" s="11">
-        <v>105809</v>
+        <v>126818</v>
       </c>
       <c r="L190" s="11">
-        <v>130809</v>
+        <v>210104</v>
       </c>
       <c r="M190" s="11">
-        <v>126818</v>
+        <v>94471</v>
       </c>
       <c r="N190" s="11">
-        <v>210104</v>
-      </c>
-    </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+        <v>147949</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
         <v>36</v>
       </c>
@@ -6870,14 +6876,14 @@
         <v>51</v>
       </c>
       <c r="D191" s="9"/>
-      <c r="E191" s="9" t="s">
-        <v>31</v>
+      <c r="E191" s="9">
+        <v>333333</v>
       </c>
       <c r="F191" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G191" s="9">
-        <v>333333</v>
+      <c r="G191" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H191" s="9" t="s">
         <v>31</v>
@@ -6894,14 +6900,14 @@
       <c r="L191" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M191" s="9" t="s">
-        <v>31</v>
+      <c r="M191" s="9">
+        <v>306122</v>
       </c>
       <c r="N191" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
         <v>37</v>
       </c>
@@ -6910,37 +6916,37 @@
       </c>
       <c r="D192" s="11"/>
       <c r="E192" s="11">
-        <v>384213</v>
+        <v>352732</v>
       </c>
       <c r="F192" s="11">
-        <v>1240430</v>
+        <v>783072</v>
       </c>
       <c r="G192" s="11">
-        <v>352732</v>
+        <v>783045</v>
       </c>
       <c r="H192" s="11">
-        <v>783072</v>
+        <v>782912</v>
       </c>
       <c r="I192" s="11">
-        <v>783045</v>
+        <v>1236310</v>
       </c>
       <c r="J192" s="11">
-        <v>782912</v>
+        <v>1347006</v>
       </c>
       <c r="K192" s="11">
-        <v>1236310</v>
+        <v>1347045</v>
       </c>
       <c r="L192" s="11">
-        <v>1347006</v>
+        <v>1346898</v>
       </c>
       <c r="M192" s="11">
-        <v>1347045</v>
+        <v>1346946</v>
       </c>
       <c r="N192" s="11">
-        <v>1346898</v>
-      </c>
-    </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1347037</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>38</v>
       </c>
@@ -6949,37 +6955,37 @@
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9">
-        <v>486942</v>
+        <v>750704</v>
       </c>
       <c r="F193" s="9">
-        <v>365456</v>
+        <v>811864</v>
       </c>
       <c r="G193" s="9">
-        <v>750704</v>
+        <v>1038939</v>
       </c>
       <c r="H193" s="9">
-        <v>811864</v>
+        <v>886844</v>
       </c>
       <c r="I193" s="9">
-        <v>1038939</v>
+        <v>1015873</v>
       </c>
       <c r="J193" s="9">
-        <v>886844</v>
+        <v>1043100</v>
       </c>
       <c r="K193" s="9">
-        <v>1015873</v>
+        <v>1052221</v>
       </c>
       <c r="L193" s="9">
-        <v>1043100</v>
+        <v>1104012</v>
       </c>
       <c r="M193" s="9">
-        <v>1052221</v>
+        <v>1110136</v>
       </c>
       <c r="N193" s="9">
-        <v>1104012</v>
-      </c>
-    </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1241880</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
         <v>39</v>
       </c>
@@ -6988,37 +6994,37 @@
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11">
-        <v>98977</v>
+        <v>-40976</v>
       </c>
       <c r="F194" s="11">
-        <v>41223</v>
+        <v>94747</v>
       </c>
       <c r="G194" s="11">
-        <v>-40976</v>
+        <v>143764</v>
       </c>
       <c r="H194" s="11">
-        <v>94747</v>
+        <v>155823</v>
       </c>
       <c r="I194" s="11">
-        <v>143764</v>
+        <v>169053</v>
       </c>
       <c r="J194" s="11">
-        <v>155823</v>
+        <v>170126</v>
       </c>
       <c r="K194" s="11">
-        <v>169053</v>
+        <v>202254</v>
       </c>
       <c r="L194" s="11">
-        <v>170126</v>
+        <v>238750</v>
       </c>
       <c r="M194" s="11">
-        <v>202254</v>
+        <v>269608</v>
       </c>
       <c r="N194" s="11">
-        <v>238750</v>
-      </c>
-    </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+        <v>238093</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="8" t="s">
         <v>40</v>
       </c>
@@ -7038,14 +7044,14 @@
       <c r="H195" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I195" s="9" t="s">
-        <v>31</v>
+      <c r="I195" s="9">
+        <v>106946</v>
       </c>
       <c r="J195" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K195" s="9">
-        <v>106946</v>
+      <c r="K195" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="L195" s="9" t="s">
         <v>31</v>
@@ -7057,7 +7063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
         <v>41</v>
       </c>
@@ -7066,37 +7072,37 @@
       </c>
       <c r="D196" s="11"/>
       <c r="E196" s="11">
-        <v>1000217</v>
+        <v>2147006</v>
       </c>
       <c r="F196" s="11">
-        <v>845941</v>
+        <v>1620440</v>
       </c>
       <c r="G196" s="11">
-        <v>2147006</v>
+        <v>1978024</v>
       </c>
       <c r="H196" s="11">
-        <v>1620440</v>
+        <v>3033103</v>
       </c>
       <c r="I196" s="11">
-        <v>1978024</v>
+        <v>3308346</v>
       </c>
       <c r="J196" s="11">
-        <v>3033103</v>
+        <v>3949643</v>
       </c>
       <c r="K196" s="11">
-        <v>3308346</v>
+        <v>4363307</v>
       </c>
       <c r="L196" s="11">
-        <v>3949643</v>
+        <v>4037320</v>
       </c>
       <c r="M196" s="11">
-        <v>4363307</v>
+        <v>2073422</v>
       </c>
       <c r="N196" s="11">
-        <v>4037320</v>
-      </c>
-    </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4224115</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -7111,7 +7117,7 @@
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -7126,7 +7132,7 @@
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -7141,7 +7147,7 @@
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B200" s="7" t="s">
         <v>55</v>
       </c>
@@ -7178,7 +7184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -7193,7 +7199,7 @@
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="8" t="s">
         <v>29</v>
       </c>
@@ -7207,32 +7213,32 @@
       <c r="F202" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G202" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H202" s="9" t="s">
-        <v>31</v>
+      <c r="G202" s="9">
+        <v>31370</v>
+      </c>
+      <c r="H202" s="9">
+        <v>32417</v>
       </c>
       <c r="I202" s="9">
-        <v>31370</v>
+        <v>30204</v>
       </c>
       <c r="J202" s="9">
-        <v>32417</v>
+        <v>30748</v>
       </c>
       <c r="K202" s="9">
-        <v>30204</v>
+        <v>25201</v>
       </c>
       <c r="L202" s="9">
-        <v>30748</v>
+        <v>31760</v>
       </c>
       <c r="M202" s="9">
-        <v>25201</v>
+        <v>31996</v>
       </c>
       <c r="N202" s="9">
-        <v>31760</v>
-      </c>
-    </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+        <v>36429</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="10" t="s">
         <v>32</v>
       </c>
@@ -7271,7 +7277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="8" t="s">
         <v>33</v>
       </c>
@@ -7285,11 +7291,11 @@
       <c r="F204" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G204" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H204" s="9" t="s">
-        <v>31</v>
+      <c r="G204" s="9">
+        <v>1188</v>
+      </c>
+      <c r="H204" s="9">
+        <v>1188</v>
       </c>
       <c r="I204" s="9">
         <v>1188</v>
@@ -7304,13 +7310,13 @@
         <v>1188</v>
       </c>
       <c r="M204" s="9">
-        <v>1188</v>
+        <v>277535</v>
       </c>
       <c r="N204" s="9">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+        <v>277535</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="10" t="s">
         <v>34</v>
       </c>
@@ -7324,32 +7330,32 @@
       <c r="F205" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G205" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H205" s="11" t="s">
-        <v>31</v>
+      <c r="G205" s="11">
+        <v>101024</v>
+      </c>
+      <c r="H205" s="11">
+        <v>101183</v>
       </c>
       <c r="I205" s="11">
-        <v>101024</v>
+        <v>110517</v>
       </c>
       <c r="J205" s="11">
-        <v>101183</v>
+        <v>105949</v>
       </c>
       <c r="K205" s="11">
-        <v>110517</v>
+        <v>129420</v>
       </c>
       <c r="L205" s="11">
-        <v>105949</v>
+        <v>129043</v>
       </c>
       <c r="M205" s="11">
-        <v>129420</v>
+        <v>146279</v>
       </c>
       <c r="N205" s="11">
-        <v>129043</v>
-      </c>
-    </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+        <v>147947</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="8" t="s">
         <v>36</v>
       </c>
@@ -7363,32 +7369,32 @@
       <c r="F206" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G206" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H206" s="9" t="s">
-        <v>31</v>
+      <c r="G206" s="9">
+        <v>77273</v>
+      </c>
+      <c r="H206" s="9">
+        <v>309225</v>
       </c>
       <c r="I206" s="9">
-        <v>77273</v>
+        <v>309346</v>
       </c>
       <c r="J206" s="9">
-        <v>309225</v>
+        <v>309346</v>
       </c>
       <c r="K206" s="9">
-        <v>309346</v>
+        <v>308760</v>
       </c>
       <c r="L206" s="9">
-        <v>309346</v>
+        <v>308760</v>
       </c>
       <c r="M206" s="9">
-        <v>308760</v>
+        <v>309301</v>
       </c>
       <c r="N206" s="9">
-        <v>308760</v>
-      </c>
-    </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+        <v>309301</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="10" t="s">
         <v>37</v>
       </c>
@@ -7402,32 +7408,32 @@
       <c r="F207" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G207" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H207" s="11" t="s">
-        <v>31</v>
+      <c r="G207" s="11">
+        <v>783024</v>
+      </c>
+      <c r="H207" s="11">
+        <v>783084</v>
       </c>
       <c r="I207" s="11">
-        <v>783024</v>
+        <v>1396819</v>
       </c>
       <c r="J207" s="11">
-        <v>783084</v>
+        <v>1346978</v>
       </c>
       <c r="K207" s="11">
-        <v>1396819</v>
+        <v>1346963</v>
       </c>
       <c r="L207" s="11">
         <v>1346978</v>
       </c>
       <c r="M207" s="11">
-        <v>1346963</v>
+        <v>1346969</v>
       </c>
       <c r="N207" s="11">
-        <v>1346978</v>
-      </c>
-    </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1346933</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="8" t="s">
         <v>38</v>
       </c>
@@ -7441,32 +7447,32 @@
       <c r="F208" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G208" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H208" s="9" t="s">
-        <v>31</v>
+      <c r="G208" s="9">
+        <v>886864</v>
+      </c>
+      <c r="H208" s="9">
+        <v>888667</v>
       </c>
       <c r="I208" s="9">
-        <v>886864</v>
+        <v>899080</v>
       </c>
       <c r="J208" s="9">
-        <v>888667</v>
+        <v>1049482</v>
       </c>
       <c r="K208" s="9">
-        <v>899080</v>
+        <v>1046581</v>
       </c>
       <c r="L208" s="9">
-        <v>1049482</v>
+        <v>1042175</v>
       </c>
       <c r="M208" s="9">
-        <v>1046581</v>
+        <v>1241898</v>
       </c>
       <c r="N208" s="9">
-        <v>1042175</v>
-      </c>
-    </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1241842</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B209" s="10" t="s">
         <v>39</v>
       </c>
@@ -7480,32 +7486,32 @@
       <c r="F209" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G209" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H209" s="11" t="s">
-        <v>31</v>
+      <c r="G209" s="11">
+        <v>144305</v>
+      </c>
+      <c r="H209" s="11">
+        <v>165358</v>
       </c>
       <c r="I209" s="11">
-        <v>144305</v>
+        <v>211411</v>
       </c>
       <c r="J209" s="11">
-        <v>165358</v>
+        <v>169725</v>
       </c>
       <c r="K209" s="11">
-        <v>211411</v>
+        <v>208377</v>
       </c>
       <c r="L209" s="11">
-        <v>169725</v>
+        <v>179384</v>
       </c>
       <c r="M209" s="11">
-        <v>208377</v>
+        <v>235121</v>
       </c>
       <c r="N209" s="11">
-        <v>179384</v>
-      </c>
-    </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
+        <v>239903</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B210" s="8" t="s">
         <v>40</v>
       </c>
@@ -7544,7 +7550,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B211" s="10" t="s">
         <v>41</v>
       </c>
@@ -7558,32 +7564,32 @@
       <c r="F211" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G211" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H211" s="11" t="s">
-        <v>31</v>
+      <c r="G211" s="11">
+        <v>2899092</v>
+      </c>
+      <c r="H211" s="11">
+        <v>3134739</v>
       </c>
       <c r="I211" s="11">
-        <v>2899092</v>
+        <v>3410871</v>
       </c>
       <c r="J211" s="11">
-        <v>3134739</v>
+        <v>4261808</v>
       </c>
       <c r="K211" s="11">
-        <v>3410871</v>
+        <v>4157791</v>
       </c>
       <c r="L211" s="11">
-        <v>4261808</v>
+        <v>4420573</v>
       </c>
       <c r="M211" s="11">
-        <v>4157791</v>
+        <v>4224102</v>
       </c>
       <c r="N211" s="11">
-        <v>4420573</v>
-      </c>
-    </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4224093</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -7598,7 +7604,7 @@
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
     </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -7613,7 +7619,7 @@
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
     </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -7628,7 +7634,7 @@
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
     </row>
-    <row r="215" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B215" s="7" t="s">
         <v>56</v>
       </c>
@@ -7665,7 +7671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -7680,20 +7686,20 @@
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
     </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B217" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
       <c r="E217" s="9">
-        <v>-10034</v>
+        <v>-20793</v>
       </c>
       <c r="F217" s="9">
-        <v>20793</v>
+        <v>0</v>
       </c>
       <c r="G217" s="9">
-        <v>-20793</v>
+        <v>0</v>
       </c>
       <c r="H217" s="9">
         <v>0</v>
@@ -7717,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B218" s="10" t="s">
         <v>58</v>
       </c>
@@ -7754,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B219" s="8" t="s">
         <v>59</v>
       </c>
@@ -7791,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B220" s="10" t="s">
         <v>60</v>
       </c>
@@ -7828,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B221" s="8" t="s">
         <v>61</v>
       </c>
@@ -7865,118 +7871,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B222" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11">
-        <v>84791</v>
+        <v>69723</v>
       </c>
       <c r="F222" s="11">
-        <v>111951</v>
+        <v>78531</v>
       </c>
       <c r="G222" s="11">
-        <v>69723</v>
+        <v>42842</v>
       </c>
       <c r="H222" s="11">
-        <v>78531</v>
+        <v>204552</v>
       </c>
       <c r="I222" s="11">
-        <v>42842</v>
+        <v>488178</v>
       </c>
       <c r="J222" s="11">
-        <v>204552</v>
+        <v>247387</v>
       </c>
       <c r="K222" s="11">
-        <v>364118</v>
+        <v>373543</v>
       </c>
       <c r="L222" s="11">
-        <v>247387</v>
+        <v>331556</v>
       </c>
       <c r="M222" s="11">
-        <v>373543</v>
+        <v>377085</v>
       </c>
       <c r="N222" s="11">
-        <v>331556</v>
-      </c>
-    </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
+        <v>418157</v>
+      </c>
+    </row>
+    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B223" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
       <c r="E223" s="9">
-        <v>16535</v>
+        <v>16490</v>
       </c>
       <c r="F223" s="9">
-        <v>16465</v>
+        <v>21829</v>
       </c>
       <c r="G223" s="9">
-        <v>16490</v>
+        <v>13452</v>
       </c>
       <c r="H223" s="9">
-        <v>21829</v>
+        <v>98799</v>
       </c>
       <c r="I223" s="9">
-        <v>13452</v>
+        <v>-56355</v>
       </c>
       <c r="J223" s="9">
-        <v>98799</v>
+        <v>21077</v>
       </c>
       <c r="K223" s="9">
-        <v>-56355</v>
+        <v>31445</v>
       </c>
       <c r="L223" s="9">
-        <v>21077</v>
+        <v>26261</v>
       </c>
       <c r="M223" s="9">
-        <v>31445</v>
+        <v>9084</v>
       </c>
       <c r="N223" s="9">
-        <v>26261</v>
-      </c>
-    </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26320</v>
+      </c>
+    </row>
+    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B224" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
       <c r="E224" s="11">
-        <v>114536</v>
+        <v>154220</v>
       </c>
       <c r="F224" s="11">
-        <v>133755</v>
+        <v>105030</v>
       </c>
       <c r="G224" s="11">
-        <v>154220</v>
+        <v>245513</v>
       </c>
       <c r="H224" s="11">
-        <v>105030</v>
+        <v>67450</v>
       </c>
       <c r="I224" s="11">
-        <v>245513</v>
+        <v>378383</v>
       </c>
       <c r="J224" s="11">
-        <v>67450</v>
+        <v>133947</v>
       </c>
       <c r="K224" s="11">
-        <v>378383</v>
+        <v>263422</v>
       </c>
       <c r="L224" s="11">
-        <v>133947</v>
+        <v>216748</v>
       </c>
       <c r="M224" s="11">
-        <v>263422</v>
+        <v>605645</v>
       </c>
       <c r="N224" s="11">
-        <v>216748</v>
-      </c>
-    </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
+        <v>323470</v>
+      </c>
+    </row>
+    <row r="225" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B225" s="8" t="s">
         <v>65</v>
       </c>
@@ -8013,81 +8019,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B226" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
       <c r="E226" s="11">
-        <v>99879</v>
+        <v>-16384</v>
       </c>
       <c r="F226" s="11">
-        <v>148714</v>
+        <v>355710</v>
       </c>
       <c r="G226" s="11">
-        <v>-16384</v>
+        <v>351062</v>
       </c>
       <c r="H226" s="11">
-        <v>355710</v>
+        <v>-127525</v>
       </c>
       <c r="I226" s="11">
-        <v>351062</v>
+        <v>-41015</v>
       </c>
       <c r="J226" s="11">
-        <v>-127525</v>
+        <v>484135</v>
       </c>
       <c r="K226" s="11">
-        <v>83045</v>
+        <v>-42625</v>
       </c>
       <c r="L226" s="11">
-        <v>484135</v>
+        <v>492131</v>
       </c>
       <c r="M226" s="11">
-        <v>-42625</v>
+        <v>104241</v>
       </c>
       <c r="N226" s="11">
-        <v>492131</v>
-      </c>
-    </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
+        <v>292361</v>
+      </c>
+    </row>
+    <row r="227" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B227" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C227" s="15"/>
       <c r="D227" s="15"/>
       <c r="E227" s="15">
-        <v>305707</v>
+        <v>203256</v>
       </c>
       <c r="F227" s="15">
-        <v>431678</v>
+        <v>561100</v>
       </c>
       <c r="G227" s="15">
-        <v>203256</v>
+        <v>652869</v>
       </c>
       <c r="H227" s="15">
-        <v>561100</v>
+        <v>243276</v>
       </c>
       <c r="I227" s="15">
-        <v>652869</v>
+        <v>769191</v>
       </c>
       <c r="J227" s="15">
-        <v>243276</v>
+        <v>886546</v>
       </c>
       <c r="K227" s="15">
-        <v>769191</v>
+        <v>625785</v>
       </c>
       <c r="L227" s="15">
-        <v>886546</v>
+        <v>1066696</v>
       </c>
       <c r="M227" s="15">
-        <v>625785</v>
+        <v>1096055</v>
       </c>
       <c r="N227" s="15">
-        <v>1066696</v>
-      </c>
-    </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1060308</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -8102,7 +8108,7 @@
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
     </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -8117,7 +8123,7 @@
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
     </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -8132,7 +8138,7 @@
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
     </row>
-    <row r="231" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B231" s="7" t="s">
         <v>67</v>
       </c>
@@ -8149,7 +8155,7 @@
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
     </row>
-    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -8164,7 +8170,7 @@
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
     </row>
-    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B233" s="8" t="s">
         <v>68</v>
       </c>
@@ -8183,7 +8189,7 @@
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
     </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B234" s="10" t="s">
         <v>70</v>
       </c>
@@ -8193,8 +8199,16 @@
       <c r="D234" s="11"/>
       <c r="E234" s="11"/>
       <c r="F234" s="11"/>
-    </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+    </row>
+    <row r="235" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B235" s="8" t="s">
         <v>72</v>
       </c>
@@ -8205,7 +8219,7 @@
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
     </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B236" s="10" t="s">
         <v>74</v>
       </c>
@@ -8216,7 +8230,7 @@
       <c r="E236" s="11"/>
       <c r="F236" s="11"/>
     </row>
-    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B237" s="8" t="s">
         <v>76</v>
       </c>
@@ -8227,7 +8241,7 @@
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
     </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B238" s="10" t="s">
         <v>78</v>
       </c>
@@ -8238,7 +8252,7 @@
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
     </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B239" s="8" t="s">
         <v>80</v>
       </c>
@@ -8249,7 +8263,7 @@
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
     </row>
-    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B240" s="10" t="s">
         <v>82</v>
       </c>
@@ -8260,7 +8274,7 @@
       <c r="E240" s="11"/>
       <c r="F240" s="11"/>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B241" s="8" t="s">
         <v>84</v>
       </c>
@@ -8271,7 +8285,7 @@
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B242" s="10" t="s">
         <v>86</v>
       </c>
@@ -8282,7 +8296,7 @@
       <c r="E242" s="11"/>
       <c r="F242" s="11"/>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B243" s="8" t="s">
         <v>88</v>
       </c>
@@ -8293,7 +8307,7 @@
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B244" s="10" t="s">
         <v>90</v>
       </c>
@@ -8303,6 +8317,17 @@
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
       <c r="F244" s="11"/>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B245" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D245" s="9"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
